--- a/testdata/Redeem.xlsx
+++ b/testdata/Redeem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data - 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MightyPay\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA5681-2566-4CAC-846A-D99E4CE1B0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -29,10 +30,16 @@
     <definedName name="OLE_LINK63" localSheetId="1">Redeem!$P$1</definedName>
     <definedName name="OLE_LINK8" localSheetId="1">Redeem!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2711,7 +2718,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2962,17 +2969,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2992,20 +2996,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 8" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3282,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3358,14 +3365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A255" sqref="A255:A279"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3448,7 +3455,7 @@
       <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="37" t="s">
         <v>743</v>
       </c>
       <c r="T1" s="34" t="s">
@@ -3498,10 +3505,10 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3552,7 +3559,7 @@
       <c r="R2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="48"/>
+      <c r="S2" s="38"/>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
       <c r="V2" s="33"/>
@@ -3572,9 +3579,9 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3622,7 +3629,7 @@
       <c r="R3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S3" s="48"/>
+      <c r="S3" s="38"/>
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
       <c r="V3" s="33"/>
@@ -3642,9 +3649,9 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="15" t="s">
         <v>38</v>
       </c>
@@ -3690,7 +3697,7 @@
       <c r="R4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="48"/>
+      <c r="S4" s="38"/>
       <c r="T4" s="33"/>
       <c r="U4" s="33"/>
       <c r="V4" s="33"/>
@@ -3710,9 +3717,9 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="15" t="s">
         <v>42</v>
       </c>
@@ -3758,7 +3765,7 @@
       <c r="R5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="48"/>
+      <c r="S5" s="38"/>
       <c r="T5" s="33"/>
       <c r="U5" s="33"/>
       <c r="V5" s="33"/>
@@ -3778,9 +3785,9 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="15" t="s">
         <v>45</v>
       </c>
@@ -3826,7 +3833,7 @@
       <c r="R6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="48"/>
+      <c r="S6" s="38"/>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
       <c r="V6" s="33"/>
@@ -3846,9 +3853,9 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="15" t="s">
         <v>49</v>
       </c>
@@ -3894,7 +3901,7 @@
       <c r="R7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="48"/>
+      <c r="S7" s="38"/>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
       <c r="V7" s="33"/>
@@ -3914,9 +3921,9 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="15" t="s">
         <v>53</v>
       </c>
@@ -3962,7 +3969,7 @@
       <c r="R8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="48"/>
+      <c r="S8" s="38"/>
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
       <c r="V8" s="33"/>
@@ -3982,9 +3989,9 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="15" t="s">
         <v>57</v>
       </c>
@@ -4030,7 +4037,7 @@
       <c r="R9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="48"/>
+      <c r="S9" s="38"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
       <c r="V9" s="33"/>
@@ -4050,9 +4057,9 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="15" t="s">
         <v>57</v>
       </c>
@@ -4098,7 +4105,7 @@
       <c r="R10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="48"/>
+      <c r="S10" s="38"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
       <c r="V10" s="33"/>
@@ -4118,9 +4125,9 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="15" t="s">
         <v>57</v>
       </c>
@@ -4166,7 +4173,7 @@
       <c r="R11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="48"/>
+      <c r="S11" s="38"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
       <c r="V11" s="33"/>
@@ -4186,9 +4193,9 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="15" t="s">
         <v>57</v>
       </c>
@@ -4234,7 +4241,7 @@
       <c r="R12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="48"/>
+      <c r="S12" s="38"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
       <c r="V12" s="33"/>
@@ -4254,9 +4261,9 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="15" t="s">
         <v>57</v>
       </c>
@@ -4302,7 +4309,7 @@
       <c r="R13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S13" s="48"/>
+      <c r="S13" s="38"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
@@ -4322,9 +4329,9 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="15" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4377,7 @@
       <c r="R14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="48"/>
+      <c r="S14" s="38"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
       <c r="V14" s="33"/>
@@ -4390,9 +4397,9 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46"/>
       <c r="D15" s="15" t="s">
         <v>77</v>
       </c>
@@ -4438,7 +4445,7 @@
       <c r="R15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S15" s="48"/>
+      <c r="S15" s="38"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
       <c r="V15" s="33"/>
@@ -4458,9 +4465,9 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="15" t="s">
         <v>81</v>
       </c>
@@ -4506,7 +4513,7 @@
       <c r="R16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S16" s="48"/>
+      <c r="S16" s="38"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
       <c r="V16" s="33"/>
@@ -4526,9 +4533,9 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="15" t="s">
         <v>85</v>
       </c>
@@ -4574,7 +4581,7 @@
       <c r="R17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="48"/>
+      <c r="S17" s="38"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
       <c r="V17" s="33"/>
@@ -4594,9 +4601,9 @@
       </c>
     </row>
     <row r="18" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="15" t="s">
         <v>88</v>
       </c>
@@ -4642,7 +4649,7 @@
       <c r="R18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="48"/>
+      <c r="S18" s="38"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
       <c r="V18" s="33"/>
@@ -4662,9 +4669,9 @@
       </c>
     </row>
     <row r="19" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="15" t="s">
         <v>92</v>
       </c>
@@ -4710,7 +4717,7 @@
       <c r="R19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S19" s="48"/>
+      <c r="S19" s="38"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
       <c r="V19" s="33"/>
@@ -4730,9 +4737,9 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="15" t="s">
         <v>96</v>
       </c>
@@ -4778,7 +4785,7 @@
       <c r="R20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S20" s="48"/>
+      <c r="S20" s="38"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
       <c r="V20" s="33"/>
@@ -4798,9 +4805,9 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="15" t="s">
         <v>100</v>
       </c>
@@ -4844,7 +4851,7 @@
       <c r="R21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S21" s="48"/>
+      <c r="S21" s="38"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
       <c r="V21" s="33"/>
@@ -4864,9 +4871,9 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="15" t="s">
         <v>104</v>
       </c>
@@ -4910,7 +4917,7 @@
       <c r="R22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="48"/>
+      <c r="S22" s="38"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
       <c r="V22" s="33"/>
@@ -4930,9 +4937,9 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="38" t="s">
+      <c r="A23" s="41"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -4980,7 +4987,7 @@
       <c r="R23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S23" s="48"/>
+      <c r="S23" s="38"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
       <c r="V23" s="33"/>
@@ -5000,9 +5007,9 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="15" t="s">
         <v>112</v>
       </c>
@@ -5046,7 +5053,7 @@
       <c r="R24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S24" s="48"/>
+      <c r="S24" s="38"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
@@ -5066,9 +5073,9 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="17" t="s">
         <v>115</v>
       </c>
@@ -5114,7 +5121,7 @@
       <c r="R25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S25" s="48"/>
+      <c r="S25" s="38"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
@@ -5134,10 +5141,10 @@
       </c>
     </row>
     <row r="26" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="40">
         <v>2</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -5188,7 +5195,7 @@
       <c r="R26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S26" s="48"/>
+      <c r="S26" s="38"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
@@ -5208,9 +5215,9 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="41"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="46" t="s">
         <v>122</v>
       </c>
       <c r="D27" s="15" t="s">
@@ -5258,7 +5265,7 @@
       <c r="R27" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S27" s="48"/>
+      <c r="S27" s="38"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
@@ -5278,9 +5285,9 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="15" t="s">
         <v>38</v>
       </c>
@@ -5326,7 +5333,7 @@
       <c r="R28" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S28" s="48"/>
+      <c r="S28" s="38"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
       <c r="V28" s="33"/>
@@ -5346,9 +5353,9 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="15" t="s">
         <v>42</v>
       </c>
@@ -5394,7 +5401,7 @@
       <c r="R29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S29" s="48"/>
+      <c r="S29" s="38"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
       <c r="V29" s="33"/>
@@ -5414,9 +5421,9 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="15" t="s">
         <v>45</v>
       </c>
@@ -5462,7 +5469,7 @@
       <c r="R30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S30" s="48"/>
+      <c r="S30" s="38"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
       <c r="V30" s="33"/>
@@ -5482,9 +5489,9 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="15" t="s">
         <v>49</v>
       </c>
@@ -5530,7 +5537,7 @@
       <c r="R31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S31" s="48"/>
+      <c r="S31" s="38"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
       <c r="V31" s="33"/>
@@ -5550,9 +5557,9 @@
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="37"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="15" t="s">
         <v>53</v>
       </c>
@@ -5598,7 +5605,7 @@
       <c r="R32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S32" s="48"/>
+      <c r="S32" s="38"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
       <c r="V32" s="33"/>
@@ -5618,9 +5625,9 @@
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="46"/>
       <c r="D33" s="15" t="s">
         <v>57</v>
       </c>
@@ -5666,7 +5673,7 @@
       <c r="R33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S33" s="48"/>
+      <c r="S33" s="38"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
       <c r="V33" s="33"/>
@@ -5686,9 +5693,9 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="15" t="s">
         <v>57</v>
       </c>
@@ -5734,7 +5741,7 @@
       <c r="R34" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S34" s="48"/>
+      <c r="S34" s="38"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
       <c r="V34" s="33"/>
@@ -5754,9 +5761,9 @@
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="15" t="s">
         <v>57</v>
       </c>
@@ -5802,7 +5809,7 @@
       <c r="R35" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S35" s="48"/>
+      <c r="S35" s="38"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
       <c r="V35" s="33"/>
@@ -5822,9 +5829,9 @@
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="15" t="s">
         <v>77</v>
       </c>
@@ -5870,7 +5877,7 @@
       <c r="R36" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S36" s="48"/>
+      <c r="S36" s="38"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
       <c r="V36" s="33"/>
@@ -5890,9 +5897,9 @@
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="15" t="s">
         <v>81</v>
       </c>
@@ -5938,7 +5945,7 @@
       <c r="R37" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S37" s="48"/>
+      <c r="S37" s="38"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
       <c r="V37" s="33"/>
@@ -5958,9 +5965,9 @@
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="15" t="s">
         <v>85</v>
       </c>
@@ -6006,7 +6013,7 @@
       <c r="R38" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S38" s="48"/>
+      <c r="S38" s="38"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
       <c r="V38" s="33"/>
@@ -6026,9 +6033,9 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="15" t="s">
         <v>88</v>
       </c>
@@ -6074,7 +6081,7 @@
       <c r="R39" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S39" s="48"/>
+      <c r="S39" s="38"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
       <c r="V39" s="33"/>
@@ -6094,9 +6101,9 @@
       </c>
     </row>
     <row r="40" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="37"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="15" t="s">
         <v>92</v>
       </c>
@@ -6142,7 +6149,7 @@
       <c r="R40" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S40" s="48"/>
+      <c r="S40" s="38"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
       <c r="V40" s="33"/>
@@ -6162,9 +6169,9 @@
       </c>
     </row>
     <row r="41" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="37"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="15" t="s">
         <v>96</v>
       </c>
@@ -6210,7 +6217,7 @@
       <c r="R41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S41" s="48"/>
+      <c r="S41" s="38"/>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
       <c r="V41" s="33"/>
@@ -6230,9 +6237,9 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="37"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="15" t="s">
         <v>100</v>
       </c>
@@ -6276,7 +6283,7 @@
       <c r="R42" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S42" s="48"/>
+      <c r="S42" s="38"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
       <c r="V42" s="33"/>
@@ -6296,9 +6303,9 @@
       </c>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="37"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="15" t="s">
         <v>104</v>
       </c>
@@ -6342,7 +6349,7 @@
       <c r="R43" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S43" s="48"/>
+      <c r="S43" s="38"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
       <c r="V43" s="33"/>
@@ -6362,9 +6369,9 @@
       </c>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="38" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="47" t="s">
         <v>172</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -6412,7 +6419,7 @@
       <c r="R44" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S44" s="48"/>
+      <c r="S44" s="38"/>
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
       <c r="V44" s="33"/>
@@ -6432,9 +6439,9 @@
       </c>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="39"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="48"/>
       <c r="D45" s="15" t="s">
         <v>112</v>
       </c>
@@ -6478,7 +6485,7 @@
       <c r="R45" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S45" s="48"/>
+      <c r="S45" s="38"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
       <c r="V45" s="33"/>
@@ -6498,9 +6505,9 @@
       </c>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="40"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="17" t="s">
         <v>115</v>
       </c>
@@ -6546,7 +6553,7 @@
       <c r="R46" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S46" s="48"/>
+      <c r="S46" s="38"/>
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
       <c r="V46" s="33"/>
@@ -6566,10 +6573,10 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="41">
+      <c r="A47" s="40">
         <v>3</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -6620,7 +6627,7 @@
       <c r="R47" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S47" s="48"/>
+      <c r="S47" s="38"/>
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
       <c r="V47" s="33"/>
@@ -6640,9 +6647,9 @@
       </c>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="37" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="46" t="s">
         <v>184</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -6690,7 +6697,7 @@
       <c r="R48" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S48" s="48"/>
+      <c r="S48" s="38"/>
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
       <c r="V48" s="33"/>
@@ -6710,9 +6717,9 @@
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="37"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="46"/>
       <c r="D49" s="15" t="s">
         <v>38</v>
       </c>
@@ -6758,7 +6765,7 @@
       <c r="R49" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S49" s="48"/>
+      <c r="S49" s="38"/>
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
       <c r="V49" s="33"/>
@@ -6778,9 +6785,9 @@
       </c>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="37"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="15" t="s">
         <v>42</v>
       </c>
@@ -6826,7 +6833,7 @@
       <c r="R50" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S50" s="48"/>
+      <c r="S50" s="38"/>
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
       <c r="V50" s="33"/>
@@ -6846,9 +6853,9 @@
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="42"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="37"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="46"/>
       <c r="D51" s="15" t="s">
         <v>45</v>
       </c>
@@ -6894,7 +6901,7 @@
       <c r="R51" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S51" s="48"/>
+      <c r="S51" s="38"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
       <c r="V51" s="33"/>
@@ -6914,9 +6921,9 @@
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A52" s="42"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="37"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="15" t="s">
         <v>49</v>
       </c>
@@ -6962,7 +6969,7 @@
       <c r="R52" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S52" s="48"/>
+      <c r="S52" s="38"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
       <c r="V52" s="33"/>
@@ -6982,9 +6989,9 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="37"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="46"/>
       <c r="D53" s="15" t="s">
         <v>53</v>
       </c>
@@ -7030,7 +7037,7 @@
       <c r="R53" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S53" s="48"/>
+      <c r="S53" s="38"/>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
       <c r="V53" s="33"/>
@@ -7050,9 +7057,9 @@
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="42"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="37"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="15" t="s">
         <v>57</v>
       </c>
@@ -7098,7 +7105,7 @@
       <c r="R54" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S54" s="48"/>
+      <c r="S54" s="38"/>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
       <c r="V54" s="33"/>
@@ -7118,9 +7125,9 @@
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="37"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="15" t="s">
         <v>57</v>
       </c>
@@ -7166,7 +7173,7 @@
       <c r="R55" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S55" s="48"/>
+      <c r="S55" s="38"/>
       <c r="T55" s="33"/>
       <c r="U55" s="33"/>
       <c r="V55" s="33"/>
@@ -7186,9 +7193,9 @@
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="37"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="46"/>
       <c r="D56" s="15" t="s">
         <v>57</v>
       </c>
@@ -7234,7 +7241,7 @@
       <c r="R56" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S56" s="48"/>
+      <c r="S56" s="38"/>
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
       <c r="V56" s="33"/>
@@ -7254,9 +7261,9 @@
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="37"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="15" t="s">
         <v>77</v>
       </c>
@@ -7302,7 +7309,7 @@
       <c r="R57" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S57" s="48"/>
+      <c r="S57" s="38"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
       <c r="V57" s="33"/>
@@ -7322,9 +7329,9 @@
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A58" s="42"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="37"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="46"/>
       <c r="D58" s="15" t="s">
         <v>81</v>
       </c>
@@ -7370,7 +7377,7 @@
       <c r="R58" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S58" s="48"/>
+      <c r="S58" s="38"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
       <c r="V58" s="33"/>
@@ -7390,9 +7397,9 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="37"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="15" t="s">
         <v>85</v>
       </c>
@@ -7438,7 +7445,7 @@
       <c r="R59" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S59" s="48"/>
+      <c r="S59" s="38"/>
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
       <c r="V59" s="33"/>
@@ -7458,9 +7465,9 @@
       </c>
     </row>
     <row r="60" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="37"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="46"/>
       <c r="D60" s="15" t="s">
         <v>88</v>
       </c>
@@ -7506,7 +7513,7 @@
       <c r="R60" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S60" s="48"/>
+      <c r="S60" s="38"/>
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
       <c r="V60" s="33"/>
@@ -7526,9 +7533,9 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="37"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="15" t="s">
         <v>92</v>
       </c>
@@ -7574,7 +7581,7 @@
       <c r="R61" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S61" s="48"/>
+      <c r="S61" s="38"/>
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
       <c r="V61" s="33"/>
@@ -7594,9 +7601,9 @@
       </c>
     </row>
     <row r="62" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="37"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="46"/>
       <c r="D62" s="15" t="s">
         <v>96</v>
       </c>
@@ -7642,7 +7649,7 @@
       <c r="R62" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S62" s="48"/>
+      <c r="S62" s="38"/>
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
       <c r="V62" s="33"/>
@@ -7662,9 +7669,9 @@
       </c>
     </row>
     <row r="63" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="37"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="46"/>
       <c r="D63" s="15" t="s">
         <v>100</v>
       </c>
@@ -7708,7 +7715,7 @@
       <c r="R63" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S63" s="48"/>
+      <c r="S63" s="38"/>
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
       <c r="V63" s="33"/>
@@ -7728,9 +7735,9 @@
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="37"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="46"/>
       <c r="D64" s="15" t="s">
         <v>104</v>
       </c>
@@ -7774,7 +7781,7 @@
       <c r="R64" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S64" s="48"/>
+      <c r="S64" s="38"/>
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
       <c r="V64" s="33"/>
@@ -7794,9 +7801,9 @@
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="38" t="s">
+      <c r="A65" s="41"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="47" t="s">
         <v>172</v>
       </c>
       <c r="D65" s="15" t="s">
@@ -7844,7 +7851,7 @@
       <c r="R65" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S65" s="48"/>
+      <c r="S65" s="38"/>
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
       <c r="V65" s="33"/>
@@ -7864,9 +7871,9 @@
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="39"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="15" t="s">
         <v>112</v>
       </c>
@@ -7910,7 +7917,7 @@
       <c r="R66" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S66" s="48"/>
+      <c r="S66" s="38"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
       <c r="V66" s="33"/>
@@ -7930,9 +7937,9 @@
       </c>
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="40"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="17" t="s">
         <v>115</v>
       </c>
@@ -7978,7 +7985,7 @@
       <c r="R67" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S67" s="48"/>
+      <c r="S67" s="38"/>
       <c r="T67" s="33"/>
       <c r="U67" s="33"/>
       <c r="V67" s="33"/>
@@ -7998,10 +8005,10 @@
       </c>
     </row>
     <row r="68" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="41">
+      <c r="A68" s="40">
         <v>4</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -8052,7 +8059,7 @@
       <c r="R68" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S68" s="48"/>
+      <c r="S68" s="38"/>
       <c r="T68" s="33"/>
       <c r="U68" s="33"/>
       <c r="V68" s="33"/>
@@ -8072,9 +8079,9 @@
       </c>
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A69" s="42"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="37" t="s">
+      <c r="A69" s="41"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="46" t="s">
         <v>239</v>
       </c>
       <c r="D69" s="15" t="s">
@@ -8122,7 +8129,7 @@
       <c r="R69" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S69" s="48"/>
+      <c r="S69" s="38"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
       <c r="V69" s="33"/>
@@ -8142,9 +8149,9 @@
       </c>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="42"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="37"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="46"/>
       <c r="D70" s="15" t="s">
         <v>38</v>
       </c>
@@ -8190,7 +8197,7 @@
       <c r="R70" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S70" s="48"/>
+      <c r="S70" s="38"/>
       <c r="T70" s="33"/>
       <c r="U70" s="33"/>
       <c r="V70" s="33"/>
@@ -8210,9 +8217,9 @@
       </c>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="37"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="46"/>
       <c r="D71" s="15" t="s">
         <v>42</v>
       </c>
@@ -8258,7 +8265,7 @@
       <c r="R71" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S71" s="48"/>
+      <c r="S71" s="38"/>
       <c r="T71" s="33"/>
       <c r="U71" s="33"/>
       <c r="V71" s="33"/>
@@ -8278,9 +8285,9 @@
       </c>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="37"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="46"/>
       <c r="D72" s="15" t="s">
         <v>45</v>
       </c>
@@ -8326,7 +8333,7 @@
       <c r="R72" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S72" s="48"/>
+      <c r="S72" s="38"/>
       <c r="T72" s="33"/>
       <c r="U72" s="33"/>
       <c r="V72" s="33"/>
@@ -8346,9 +8353,9 @@
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="37"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="46"/>
       <c r="D73" s="15" t="s">
         <v>49</v>
       </c>
@@ -8394,7 +8401,7 @@
       <c r="R73" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S73" s="48"/>
+      <c r="S73" s="38"/>
       <c r="T73" s="33"/>
       <c r="U73" s="33"/>
       <c r="V73" s="33"/>
@@ -8414,9 +8421,9 @@
       </c>
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="37"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="15" t="s">
         <v>53</v>
       </c>
@@ -8462,7 +8469,7 @@
       <c r="R74" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S74" s="48"/>
+      <c r="S74" s="38"/>
       <c r="T74" s="33"/>
       <c r="U74" s="33"/>
       <c r="V74" s="33"/>
@@ -8482,9 +8489,9 @@
       </c>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="42"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="37"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="15" t="s">
         <v>57</v>
       </c>
@@ -8530,7 +8537,7 @@
       <c r="R75" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S75" s="48"/>
+      <c r="S75" s="38"/>
       <c r="T75" s="33"/>
       <c r="U75" s="33"/>
       <c r="V75" s="33"/>
@@ -8550,9 +8557,9 @@
       </c>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="37"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="46"/>
       <c r="D76" s="15" t="s">
         <v>57</v>
       </c>
@@ -8598,7 +8605,7 @@
       <c r="R76" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S76" s="48"/>
+      <c r="S76" s="38"/>
       <c r="T76" s="33"/>
       <c r="U76" s="33"/>
       <c r="V76" s="33"/>
@@ -8618,9 +8625,9 @@
       </c>
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A77" s="42"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="37"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="15" t="s">
         <v>57</v>
       </c>
@@ -8666,7 +8673,7 @@
       <c r="R77" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S77" s="48"/>
+      <c r="S77" s="38"/>
       <c r="T77" s="33"/>
       <c r="U77" s="33"/>
       <c r="V77" s="33"/>
@@ -8686,9 +8693,9 @@
       </c>
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A78" s="42"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="37"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="15" t="s">
         <v>57</v>
       </c>
@@ -8734,7 +8741,7 @@
       <c r="R78" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S78" s="48"/>
+      <c r="S78" s="38"/>
       <c r="T78" s="33"/>
       <c r="U78" s="33"/>
       <c r="V78" s="33"/>
@@ -8754,9 +8761,9 @@
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="37"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="15" t="s">
         <v>57</v>
       </c>
@@ -8802,7 +8809,7 @@
       <c r="R79" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S79" s="48"/>
+      <c r="S79" s="38"/>
       <c r="T79" s="33"/>
       <c r="U79" s="33"/>
       <c r="V79" s="33"/>
@@ -8822,9 +8829,9 @@
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="37"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="15" t="s">
         <v>57</v>
       </c>
@@ -8870,7 +8877,7 @@
       <c r="R80" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S80" s="48"/>
+      <c r="S80" s="38"/>
       <c r="T80" s="33"/>
       <c r="U80" s="33"/>
       <c r="V80" s="33"/>
@@ -8890,9 +8897,9 @@
       </c>
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="37"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="15" t="s">
         <v>77</v>
       </c>
@@ -8938,7 +8945,7 @@
       <c r="R81" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S81" s="48"/>
+      <c r="S81" s="38"/>
       <c r="T81" s="33"/>
       <c r="U81" s="33"/>
       <c r="V81" s="33"/>
@@ -8958,9 +8965,9 @@
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="37"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="15" t="s">
         <v>81</v>
       </c>
@@ -9006,7 +9013,7 @@
       <c r="R82" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S82" s="48"/>
+      <c r="S82" s="38"/>
       <c r="T82" s="33"/>
       <c r="U82" s="33"/>
       <c r="V82" s="33"/>
@@ -9026,9 +9033,9 @@
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="37"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="15" t="s">
         <v>85</v>
       </c>
@@ -9074,7 +9081,7 @@
       <c r="R83" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S83" s="48"/>
+      <c r="S83" s="38"/>
       <c r="T83" s="33"/>
       <c r="U83" s="33"/>
       <c r="V83" s="33"/>
@@ -9094,9 +9101,9 @@
       </c>
     </row>
     <row r="84" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="37"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="15" t="s">
         <v>88</v>
       </c>
@@ -9142,7 +9149,7 @@
       <c r="R84" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S84" s="48"/>
+      <c r="S84" s="38"/>
       <c r="T84" s="33"/>
       <c r="U84" s="33"/>
       <c r="V84" s="33"/>
@@ -9162,9 +9169,9 @@
       </c>
     </row>
     <row r="85" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="37"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="46"/>
       <c r="D85" s="15" t="s">
         <v>92</v>
       </c>
@@ -9210,7 +9217,7 @@
       <c r="R85" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S85" s="48"/>
+      <c r="S85" s="38"/>
       <c r="T85" s="33"/>
       <c r="U85" s="33"/>
       <c r="V85" s="33"/>
@@ -9230,9 +9237,9 @@
       </c>
     </row>
     <row r="86" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="37"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="15" t="s">
         <v>96</v>
       </c>
@@ -9278,7 +9285,7 @@
       <c r="R86" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S86" s="48"/>
+      <c r="S86" s="38"/>
       <c r="T86" s="33"/>
       <c r="U86" s="33"/>
       <c r="V86" s="33"/>
@@ -9298,9 +9305,9 @@
       </c>
     </row>
     <row r="87" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="37"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="15" t="s">
         <v>100</v>
       </c>
@@ -9344,7 +9351,7 @@
       <c r="R87" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S87" s="48"/>
+      <c r="S87" s="38"/>
       <c r="T87" s="33"/>
       <c r="U87" s="33"/>
       <c r="V87" s="33"/>
@@ -9364,9 +9371,9 @@
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="37"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="46"/>
       <c r="D88" s="15" t="s">
         <v>104</v>
       </c>
@@ -9410,7 +9417,7 @@
       <c r="R88" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S88" s="48"/>
+      <c r="S88" s="38"/>
       <c r="T88" s="33"/>
       <c r="U88" s="33"/>
       <c r="V88" s="33"/>
@@ -9430,9 +9437,9 @@
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="38" t="s">
+      <c r="A89" s="41"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D89" s="15" t="s">
@@ -9480,7 +9487,7 @@
       <c r="R89" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S89" s="48"/>
+      <c r="S89" s="38"/>
       <c r="T89" s="33"/>
       <c r="U89" s="33"/>
       <c r="V89" s="33"/>
@@ -9500,9 +9507,9 @@
       </c>
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="39"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="48"/>
       <c r="D90" s="15" t="s">
         <v>112</v>
       </c>
@@ -9546,7 +9553,7 @@
       <c r="R90" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S90" s="48"/>
+      <c r="S90" s="38"/>
       <c r="T90" s="33"/>
       <c r="U90" s="33"/>
       <c r="V90" s="33"/>
@@ -9566,9 +9573,9 @@
       </c>
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="46"/>
-      <c r="C91" s="40"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="17" t="s">
         <v>115</v>
       </c>
@@ -9614,7 +9621,7 @@
       <c r="R91" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S91" s="48"/>
+      <c r="S91" s="38"/>
       <c r="T91" s="33"/>
       <c r="U91" s="33"/>
       <c r="V91" s="33"/>
@@ -9634,13 +9641,13 @@
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A92" s="41">
+      <c r="A92" s="40">
         <v>5</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="46" t="s">
         <v>289</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -9688,7 +9695,7 @@
       <c r="R92" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S92" s="48"/>
+      <c r="S92" s="38"/>
       <c r="T92" s="33"/>
       <c r="U92" s="33"/>
       <c r="V92" s="33"/>
@@ -9708,9 +9715,9 @@
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="37"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="6" t="s">
         <v>293</v>
       </c>
@@ -9756,7 +9763,7 @@
       <c r="R93" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S93" s="48"/>
+      <c r="S93" s="38"/>
       <c r="T93" s="33"/>
       <c r="U93" s="33"/>
       <c r="V93" s="33"/>
@@ -9776,9 +9783,9 @@
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="37"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="6" t="s">
         <v>296</v>
       </c>
@@ -9824,7 +9831,7 @@
       <c r="R94" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S94" s="48"/>
+      <c r="S94" s="38"/>
       <c r="T94" s="33"/>
       <c r="U94" s="33"/>
       <c r="V94" s="33"/>
@@ -9844,9 +9851,9 @@
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="37"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="46"/>
       <c r="D95" s="6" t="s">
         <v>300</v>
       </c>
@@ -9892,7 +9899,7 @@
       <c r="R95" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S95" s="48"/>
+      <c r="S95" s="38"/>
       <c r="T95" s="33"/>
       <c r="U95" s="33"/>
       <c r="V95" s="33"/>
@@ -9912,9 +9919,9 @@
       </c>
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="37"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="46"/>
       <c r="D96" s="6" t="s">
         <v>304</v>
       </c>
@@ -9960,7 +9967,7 @@
       <c r="R96" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S96" s="48"/>
+      <c r="S96" s="38"/>
       <c r="T96" s="33"/>
       <c r="U96" s="33"/>
       <c r="V96" s="33"/>
@@ -9980,9 +9987,9 @@
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="37" t="s">
+      <c r="A97" s="41"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="46" t="s">
         <v>308</v>
       </c>
       <c r="D97" s="15" t="s">
@@ -10030,7 +10037,7 @@
       <c r="R97" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S97" s="48"/>
+      <c r="S97" s="38"/>
       <c r="T97" s="33"/>
       <c r="U97" s="33"/>
       <c r="V97" s="33"/>
@@ -10050,9 +10057,9 @@
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="37"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="15" t="s">
         <v>38</v>
       </c>
@@ -10098,7 +10105,7 @@
       <c r="R98" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S98" s="48"/>
+      <c r="S98" s="38"/>
       <c r="T98" s="33"/>
       <c r="U98" s="33"/>
       <c r="V98" s="33"/>
@@ -10118,9 +10125,9 @@
       </c>
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="37"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="46"/>
       <c r="D99" s="15" t="s">
         <v>42</v>
       </c>
@@ -10166,7 +10173,7 @@
       <c r="R99" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S99" s="48"/>
+      <c r="S99" s="38"/>
       <c r="T99" s="33"/>
       <c r="U99" s="33"/>
       <c r="V99" s="33"/>
@@ -10186,9 +10193,9 @@
       </c>
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="37"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="15" t="s">
         <v>45</v>
       </c>
@@ -10234,7 +10241,7 @@
       <c r="R100" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S100" s="48"/>
+      <c r="S100" s="38"/>
       <c r="T100" s="33"/>
       <c r="U100" s="33"/>
       <c r="V100" s="33"/>
@@ -10254,9 +10261,9 @@
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A101" s="42"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="37"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="46"/>
       <c r="D101" s="15" t="s">
         <v>49</v>
       </c>
@@ -10302,7 +10309,7 @@
       <c r="R101" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S101" s="48"/>
+      <c r="S101" s="38"/>
       <c r="T101" s="33"/>
       <c r="U101" s="33"/>
       <c r="V101" s="33"/>
@@ -10322,9 +10329,9 @@
       </c>
     </row>
     <row r="102" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A102" s="42"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="37"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="46"/>
       <c r="D102" s="15" t="s">
         <v>53</v>
       </c>
@@ -10370,7 +10377,7 @@
       <c r="R102" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S102" s="48"/>
+      <c r="S102" s="38"/>
       <c r="T102" s="33"/>
       <c r="U102" s="33"/>
       <c r="V102" s="33"/>
@@ -10390,9 +10397,9 @@
       </c>
     </row>
     <row r="103" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="37"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="46"/>
       <c r="D103" s="15" t="s">
         <v>57</v>
       </c>
@@ -10438,7 +10445,7 @@
       <c r="R103" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S103" s="48"/>
+      <c r="S103" s="38"/>
       <c r="T103" s="33"/>
       <c r="U103" s="33"/>
       <c r="V103" s="33"/>
@@ -10458,9 +10465,9 @@
       </c>
     </row>
     <row r="104" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="37"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="15" t="s">
         <v>57</v>
       </c>
@@ -10506,7 +10513,7 @@
       <c r="R104" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S104" s="48"/>
+      <c r="S104" s="38"/>
       <c r="T104" s="33"/>
       <c r="U104" s="33"/>
       <c r="V104" s="33"/>
@@ -10526,9 +10533,9 @@
       </c>
     </row>
     <row r="105" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A105" s="42"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="37"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="46"/>
       <c r="D105" s="15" t="s">
         <v>57</v>
       </c>
@@ -10574,7 +10581,7 @@
       <c r="R105" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S105" s="48"/>
+      <c r="S105" s="38"/>
       <c r="T105" s="33"/>
       <c r="U105" s="33"/>
       <c r="V105" s="33"/>
@@ -10594,9 +10601,9 @@
       </c>
     </row>
     <row r="106" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A106" s="42"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="37"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="46"/>
       <c r="D106" s="15" t="s">
         <v>77</v>
       </c>
@@ -10642,7 +10649,7 @@
       <c r="R106" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S106" s="48"/>
+      <c r="S106" s="38"/>
       <c r="T106" s="33"/>
       <c r="U106" s="33"/>
       <c r="V106" s="33"/>
@@ -10662,9 +10669,9 @@
       </c>
     </row>
     <row r="107" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A107" s="42"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="37"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="15" t="s">
         <v>81</v>
       </c>
@@ -10710,7 +10717,7 @@
       <c r="R107" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S107" s="48"/>
+      <c r="S107" s="38"/>
       <c r="T107" s="33"/>
       <c r="U107" s="33"/>
       <c r="V107" s="33"/>
@@ -10730,9 +10737,9 @@
       </c>
     </row>
     <row r="108" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A108" s="42"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="37"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="46"/>
       <c r="D108" s="15" t="s">
         <v>85</v>
       </c>
@@ -10778,7 +10785,7 @@
       <c r="R108" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S108" s="48"/>
+      <c r="S108" s="38"/>
       <c r="T108" s="33"/>
       <c r="U108" s="33"/>
       <c r="V108" s="33"/>
@@ -10798,9 +10805,9 @@
       </c>
     </row>
     <row r="109" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="42"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="37"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="46"/>
       <c r="D109" s="15" t="s">
         <v>88</v>
       </c>
@@ -10846,7 +10853,7 @@
       <c r="R109" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S109" s="48"/>
+      <c r="S109" s="38"/>
       <c r="T109" s="33"/>
       <c r="U109" s="33"/>
       <c r="V109" s="33"/>
@@ -10866,9 +10873,9 @@
       </c>
     </row>
     <row r="110" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="42"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="37"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="46"/>
       <c r="D110" s="15" t="s">
         <v>92</v>
       </c>
@@ -10914,7 +10921,7 @@
       <c r="R110" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S110" s="48"/>
+      <c r="S110" s="38"/>
       <c r="T110" s="33"/>
       <c r="U110" s="33"/>
       <c r="V110" s="33"/>
@@ -10934,9 +10941,9 @@
       </c>
     </row>
     <row r="111" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="42"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="37"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="46"/>
       <c r="D111" s="15" t="s">
         <v>96</v>
       </c>
@@ -10982,7 +10989,7 @@
       <c r="R111" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S111" s="48"/>
+      <c r="S111" s="38"/>
       <c r="T111" s="33"/>
       <c r="U111" s="33"/>
       <c r="V111" s="33"/>
@@ -11002,9 +11009,9 @@
       </c>
     </row>
     <row r="112" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="42"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="37"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="46"/>
       <c r="D112" s="15" t="s">
         <v>100</v>
       </c>
@@ -11048,7 +11055,7 @@
       <c r="R112" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S112" s="48"/>
+      <c r="S112" s="38"/>
       <c r="T112" s="33"/>
       <c r="U112" s="33"/>
       <c r="V112" s="33"/>
@@ -11068,9 +11075,9 @@
       </c>
     </row>
     <row r="113" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A113" s="42"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="37"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="46"/>
       <c r="D113" s="15" t="s">
         <v>104</v>
       </c>
@@ -11114,7 +11121,7 @@
       <c r="R113" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S113" s="48"/>
+      <c r="S113" s="38"/>
       <c r="T113" s="33"/>
       <c r="U113" s="33"/>
       <c r="V113" s="33"/>
@@ -11134,9 +11141,9 @@
       </c>
     </row>
     <row r="114" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A114" s="42"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="38" t="s">
+      <c r="A114" s="41"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D114" s="15" t="s">
@@ -11184,7 +11191,7 @@
       <c r="R114" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S114" s="48"/>
+      <c r="S114" s="38"/>
       <c r="T114" s="33"/>
       <c r="U114" s="33"/>
       <c r="V114" s="33"/>
@@ -11204,9 +11211,9 @@
       </c>
     </row>
     <row r="115" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A115" s="42"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="39"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="48"/>
       <c r="D115" s="15" t="s">
         <v>112</v>
       </c>
@@ -11250,7 +11257,7 @@
       <c r="R115" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S115" s="48"/>
+      <c r="S115" s="38"/>
       <c r="T115" s="33"/>
       <c r="U115" s="33"/>
       <c r="V115" s="33"/>
@@ -11270,9 +11277,9 @@
       </c>
     </row>
     <row r="116" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A116" s="43"/>
-      <c r="B116" s="46"/>
-      <c r="C116" s="40"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="49"/>
       <c r="D116" s="17" t="s">
         <v>115</v>
       </c>
@@ -11318,7 +11325,7 @@
       <c r="R116" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S116" s="48"/>
+      <c r="S116" s="38"/>
       <c r="T116" s="33"/>
       <c r="U116" s="33"/>
       <c r="V116" s="33"/>
@@ -11338,10 +11345,10 @@
       </c>
     </row>
     <row r="117" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="41">
+      <c r="A117" s="40">
         <v>6</v>
       </c>
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="43" t="s">
         <v>694</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -11392,7 +11399,7 @@
       <c r="R117" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S117" s="48"/>
+      <c r="S117" s="38"/>
       <c r="T117" s="33"/>
       <c r="U117" s="33"/>
       <c r="V117" s="33"/>
@@ -11412,9 +11419,9 @@
       </c>
     </row>
     <row r="118" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="37" t="s">
+      <c r="A118" s="41"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="46" t="s">
         <v>698</v>
       </c>
       <c r="D118" s="15" t="s">
@@ -11462,7 +11469,7 @@
       <c r="R118" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S118" s="48"/>
+      <c r="S118" s="38"/>
       <c r="T118" s="33"/>
       <c r="U118" s="33"/>
       <c r="V118" s="33"/>
@@ -11482,9 +11489,9 @@
       </c>
     </row>
     <row r="119" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A119" s="42"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="37"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="46"/>
       <c r="D119" s="15" t="s">
         <v>38</v>
       </c>
@@ -11530,7 +11537,7 @@
       <c r="R119" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S119" s="48"/>
+      <c r="S119" s="38"/>
       <c r="T119" s="33"/>
       <c r="U119" s="33"/>
       <c r="V119" s="33"/>
@@ -11550,9 +11557,9 @@
       </c>
     </row>
     <row r="120" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="37"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="46"/>
       <c r="D120" s="15" t="s">
         <v>42</v>
       </c>
@@ -11598,7 +11605,7 @@
       <c r="R120" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S120" s="48"/>
+      <c r="S120" s="38"/>
       <c r="T120" s="33"/>
       <c r="U120" s="33"/>
       <c r="V120" s="33"/>
@@ -11618,9 +11625,9 @@
       </c>
     </row>
     <row r="121" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A121" s="42"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="37"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="46"/>
       <c r="D121" s="15" t="s">
         <v>45</v>
       </c>
@@ -11666,7 +11673,7 @@
       <c r="R121" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S121" s="48"/>
+      <c r="S121" s="38"/>
       <c r="T121" s="33"/>
       <c r="U121" s="33"/>
       <c r="V121" s="33"/>
@@ -11686,9 +11693,9 @@
       </c>
     </row>
     <row r="122" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A122" s="42"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="37"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="46"/>
       <c r="D122" s="15" t="s">
         <v>49</v>
       </c>
@@ -11734,7 +11741,7 @@
       <c r="R122" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S122" s="48"/>
+      <c r="S122" s="38"/>
       <c r="T122" s="33"/>
       <c r="U122" s="33"/>
       <c r="V122" s="33"/>
@@ -11754,9 +11761,9 @@
       </c>
     </row>
     <row r="123" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A123" s="42"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="37"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="46"/>
       <c r="D123" s="15" t="s">
         <v>53</v>
       </c>
@@ -11802,7 +11809,7 @@
       <c r="R123" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S123" s="48"/>
+      <c r="S123" s="38"/>
       <c r="T123" s="33"/>
       <c r="U123" s="33"/>
       <c r="V123" s="33"/>
@@ -11822,9 +11829,9 @@
       </c>
     </row>
     <row r="124" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="37"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="46"/>
       <c r="D124" s="15" t="s">
         <v>57</v>
       </c>
@@ -11870,7 +11877,7 @@
       <c r="R124" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S124" s="48"/>
+      <c r="S124" s="38"/>
       <c r="T124" s="33"/>
       <c r="U124" s="33"/>
       <c r="V124" s="33"/>
@@ -11890,9 +11897,9 @@
       </c>
     </row>
     <row r="125" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="37"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="46"/>
       <c r="D125" s="15" t="s">
         <v>57</v>
       </c>
@@ -11938,7 +11945,7 @@
       <c r="R125" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S125" s="48"/>
+      <c r="S125" s="38"/>
       <c r="T125" s="33"/>
       <c r="U125" s="33"/>
       <c r="V125" s="33"/>
@@ -11958,9 +11965,9 @@
       </c>
     </row>
     <row r="126" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="37"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="46"/>
       <c r="D126" s="15" t="s">
         <v>57</v>
       </c>
@@ -12006,7 +12013,7 @@
       <c r="R126" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S126" s="48"/>
+      <c r="S126" s="38"/>
       <c r="T126" s="33"/>
       <c r="U126" s="33"/>
       <c r="V126" s="33"/>
@@ -12026,9 +12033,9 @@
       </c>
     </row>
     <row r="127" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="37"/>
+      <c r="A127" s="41"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="46"/>
       <c r="D127" s="15" t="s">
         <v>77</v>
       </c>
@@ -12074,7 +12081,7 @@
       <c r="R127" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S127" s="48"/>
+      <c r="S127" s="38"/>
       <c r="T127" s="33"/>
       <c r="U127" s="33"/>
       <c r="V127" s="33"/>
@@ -12094,9 +12101,9 @@
       </c>
     </row>
     <row r="128" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="37"/>
+      <c r="A128" s="41"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="46"/>
       <c r="D128" s="15" t="s">
         <v>81</v>
       </c>
@@ -12142,7 +12149,7 @@
       <c r="R128" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S128" s="48"/>
+      <c r="S128" s="38"/>
       <c r="T128" s="33"/>
       <c r="U128" s="33"/>
       <c r="V128" s="33"/>
@@ -12162,9 +12169,9 @@
       </c>
     </row>
     <row r="129" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="37"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="46"/>
       <c r="D129" s="15" t="s">
         <v>85</v>
       </c>
@@ -12210,7 +12217,7 @@
       <c r="R129" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S129" s="48"/>
+      <c r="S129" s="38"/>
       <c r="T129" s="33"/>
       <c r="U129" s="33"/>
       <c r="V129" s="33"/>
@@ -12230,9 +12237,9 @@
       </c>
     </row>
     <row r="130" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="37"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="46"/>
       <c r="D130" s="15" t="s">
         <v>88</v>
       </c>
@@ -12278,7 +12285,7 @@
       <c r="R130" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S130" s="48"/>
+      <c r="S130" s="38"/>
       <c r="T130" s="33"/>
       <c r="U130" s="33"/>
       <c r="V130" s="33"/>
@@ -12298,9 +12305,9 @@
       </c>
     </row>
     <row r="131" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="42"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="37"/>
+      <c r="A131" s="41"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="46"/>
       <c r="D131" s="15" t="s">
         <v>92</v>
       </c>
@@ -12346,7 +12353,7 @@
       <c r="R131" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S131" s="48"/>
+      <c r="S131" s="38"/>
       <c r="T131" s="33"/>
       <c r="U131" s="33"/>
       <c r="V131" s="33"/>
@@ -12366,9 +12373,9 @@
       </c>
     </row>
     <row r="132" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="37"/>
+      <c r="A132" s="41"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="46"/>
       <c r="D132" s="15" t="s">
         <v>96</v>
       </c>
@@ -12414,7 +12421,7 @@
       <c r="R132" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S132" s="48"/>
+      <c r="S132" s="38"/>
       <c r="T132" s="33"/>
       <c r="U132" s="33"/>
       <c r="V132" s="33"/>
@@ -12434,9 +12441,9 @@
       </c>
     </row>
     <row r="133" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="37"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="46"/>
       <c r="D133" s="15" t="s">
         <v>100</v>
       </c>
@@ -12480,7 +12487,7 @@
       <c r="R133" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S133" s="48"/>
+      <c r="S133" s="38"/>
       <c r="T133" s="33"/>
       <c r="U133" s="33"/>
       <c r="V133" s="33"/>
@@ -12500,9 +12507,9 @@
       </c>
     </row>
     <row r="134" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="37"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="46"/>
       <c r="D134" s="15" t="s">
         <v>104</v>
       </c>
@@ -12546,7 +12553,7 @@
       <c r="R134" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S134" s="48"/>
+      <c r="S134" s="38"/>
       <c r="T134" s="33"/>
       <c r="U134" s="33"/>
       <c r="V134" s="33"/>
@@ -12566,9 +12573,9 @@
       </c>
     </row>
     <row r="135" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A135" s="42"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="38" t="s">
+      <c r="A135" s="41"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D135" s="15" t="s">
@@ -12616,7 +12623,7 @@
       <c r="R135" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S135" s="48"/>
+      <c r="S135" s="38"/>
       <c r="T135" s="33"/>
       <c r="U135" s="33"/>
       <c r="V135" s="33"/>
@@ -12636,9 +12643,9 @@
       </c>
     </row>
     <row r="136" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A136" s="42"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="39"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="48"/>
       <c r="D136" s="15" t="s">
         <v>112</v>
       </c>
@@ -12682,7 +12689,7 @@
       <c r="R136" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S136" s="48"/>
+      <c r="S136" s="38"/>
       <c r="T136" s="33"/>
       <c r="U136" s="33"/>
       <c r="V136" s="33"/>
@@ -12702,9 +12709,9 @@
       </c>
     </row>
     <row r="137" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
-      <c r="B137" s="46"/>
-      <c r="C137" s="40"/>
+      <c r="A137" s="42"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="49"/>
       <c r="D137" s="17" t="s">
         <v>115</v>
       </c>
@@ -12750,7 +12757,7 @@
       <c r="R137" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S137" s="48"/>
+      <c r="S137" s="38"/>
       <c r="T137" s="33"/>
       <c r="U137" s="33"/>
       <c r="V137" s="33"/>
@@ -12770,10 +12777,10 @@
       </c>
     </row>
     <row r="138" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="41">
+      <c r="A138" s="40">
         <v>7</v>
       </c>
-      <c r="B138" s="44" t="s">
+      <c r="B138" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C138" s="23" t="s">
@@ -12824,7 +12831,7 @@
       <c r="R138" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S138" s="48"/>
+      <c r="S138" s="38"/>
       <c r="T138" s="33"/>
       <c r="U138" s="33"/>
       <c r="V138" s="33"/>
@@ -12844,9 +12851,9 @@
       </c>
     </row>
     <row r="139" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="37" t="s">
+      <c r="A139" s="41"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="46" t="s">
         <v>667</v>
       </c>
       <c r="D139" s="15" t="s">
@@ -12894,7 +12901,7 @@
       <c r="R139" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S139" s="48"/>
+      <c r="S139" s="38"/>
       <c r="T139" s="33"/>
       <c r="U139" s="33"/>
       <c r="V139" s="33"/>
@@ -12914,9 +12921,9 @@
       </c>
     </row>
     <row r="140" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A140" s="42"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="37"/>
+      <c r="A140" s="41"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="46"/>
       <c r="D140" s="15" t="s">
         <v>38</v>
       </c>
@@ -12962,7 +12969,7 @@
       <c r="R140" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S140" s="48"/>
+      <c r="S140" s="38"/>
       <c r="T140" s="33"/>
       <c r="U140" s="33"/>
       <c r="V140" s="33"/>
@@ -12982,9 +12989,9 @@
       </c>
     </row>
     <row r="141" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A141" s="42"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="37"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="44"/>
+      <c r="C141" s="46"/>
       <c r="D141" s="15" t="s">
         <v>42</v>
       </c>
@@ -13030,7 +13037,7 @@
       <c r="R141" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S141" s="48"/>
+      <c r="S141" s="38"/>
       <c r="T141" s="33"/>
       <c r="U141" s="33"/>
       <c r="V141" s="33"/>
@@ -13050,9 +13057,9 @@
       </c>
     </row>
     <row r="142" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A142" s="42"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="37"/>
+      <c r="A142" s="41"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="46"/>
       <c r="D142" s="15" t="s">
         <v>45</v>
       </c>
@@ -13098,7 +13105,7 @@
       <c r="R142" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S142" s="48"/>
+      <c r="S142" s="38"/>
       <c r="T142" s="33"/>
       <c r="U142" s="33"/>
       <c r="V142" s="33"/>
@@ -13118,9 +13125,9 @@
       </c>
     </row>
     <row r="143" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A143" s="42"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="37"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="46"/>
       <c r="D143" s="15" t="s">
         <v>49</v>
       </c>
@@ -13166,7 +13173,7 @@
       <c r="R143" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S143" s="48"/>
+      <c r="S143" s="38"/>
       <c r="T143" s="33"/>
       <c r="U143" s="33"/>
       <c r="V143" s="33"/>
@@ -13186,9 +13193,9 @@
       </c>
     </row>
     <row r="144" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A144" s="42"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="37"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="46"/>
       <c r="D144" s="15" t="s">
         <v>53</v>
       </c>
@@ -13234,7 +13241,7 @@
       <c r="R144" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S144" s="48"/>
+      <c r="S144" s="38"/>
       <c r="T144" s="33"/>
       <c r="U144" s="33"/>
       <c r="V144" s="33"/>
@@ -13254,9 +13261,9 @@
       </c>
     </row>
     <row r="145" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A145" s="42"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="37"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="46"/>
       <c r="D145" s="15" t="s">
         <v>57</v>
       </c>
@@ -13302,7 +13309,7 @@
       <c r="R145" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S145" s="48"/>
+      <c r="S145" s="38"/>
       <c r="T145" s="33"/>
       <c r="U145" s="33"/>
       <c r="V145" s="33"/>
@@ -13322,9 +13329,9 @@
       </c>
     </row>
     <row r="146" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A146" s="42"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="37"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="46"/>
       <c r="D146" s="15" t="s">
         <v>57</v>
       </c>
@@ -13370,7 +13377,7 @@
       <c r="R146" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S146" s="48"/>
+      <c r="S146" s="38"/>
       <c r="T146" s="33"/>
       <c r="U146" s="33"/>
       <c r="V146" s="33"/>
@@ -13390,9 +13397,9 @@
       </c>
     </row>
     <row r="147" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A147" s="42"/>
-      <c r="B147" s="45"/>
-      <c r="C147" s="37"/>
+      <c r="A147" s="41"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="46"/>
       <c r="D147" s="15" t="s">
         <v>57</v>
       </c>
@@ -13438,7 +13445,7 @@
       <c r="R147" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S147" s="48"/>
+      <c r="S147" s="38"/>
       <c r="T147" s="33"/>
       <c r="U147" s="33"/>
       <c r="V147" s="33"/>
@@ -13458,9 +13465,9 @@
       </c>
     </row>
     <row r="148" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A148" s="42"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="37"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="46"/>
       <c r="D148" s="15" t="s">
         <v>77</v>
       </c>
@@ -13506,7 +13513,7 @@
       <c r="R148" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S148" s="48"/>
+      <c r="S148" s="38"/>
       <c r="T148" s="33"/>
       <c r="U148" s="33"/>
       <c r="V148" s="33"/>
@@ -13526,9 +13533,9 @@
       </c>
     </row>
     <row r="149" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A149" s="42"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="37"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="46"/>
       <c r="D149" s="15" t="s">
         <v>81</v>
       </c>
@@ -13574,7 +13581,7 @@
       <c r="R149" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S149" s="48"/>
+      <c r="S149" s="38"/>
       <c r="T149" s="33"/>
       <c r="U149" s="33"/>
       <c r="V149" s="33"/>
@@ -13594,9 +13601,9 @@
       </c>
     </row>
     <row r="150" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A150" s="42"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="37"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="46"/>
       <c r="D150" s="15" t="s">
         <v>85</v>
       </c>
@@ -13642,7 +13649,7 @@
       <c r="R150" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S150" s="48"/>
+      <c r="S150" s="38"/>
       <c r="T150" s="33"/>
       <c r="U150" s="33"/>
       <c r="V150" s="33"/>
@@ -13662,9 +13669,9 @@
       </c>
     </row>
     <row r="151" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="42"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="37"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="46"/>
       <c r="D151" s="15" t="s">
         <v>88</v>
       </c>
@@ -13710,7 +13717,7 @@
       <c r="R151" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S151" s="48"/>
+      <c r="S151" s="38"/>
       <c r="T151" s="33"/>
       <c r="U151" s="33"/>
       <c r="V151" s="33"/>
@@ -13730,9 +13737,9 @@
       </c>
     </row>
     <row r="152" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="42"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="37"/>
+      <c r="A152" s="41"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="46"/>
       <c r="D152" s="15" t="s">
         <v>92</v>
       </c>
@@ -13778,7 +13785,7 @@
       <c r="R152" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S152" s="48"/>
+      <c r="S152" s="38"/>
       <c r="T152" s="33"/>
       <c r="U152" s="33"/>
       <c r="V152" s="33"/>
@@ -13798,9 +13805,9 @@
       </c>
     </row>
     <row r="153" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="42"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="37"/>
+      <c r="A153" s="41"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="46"/>
       <c r="D153" s="15" t="s">
         <v>96</v>
       </c>
@@ -13846,7 +13853,7 @@
       <c r="R153" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S153" s="48"/>
+      <c r="S153" s="38"/>
       <c r="T153" s="33"/>
       <c r="U153" s="33"/>
       <c r="V153" s="33"/>
@@ -13866,9 +13873,9 @@
       </c>
     </row>
     <row r="154" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="42"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="37"/>
+      <c r="A154" s="41"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="46"/>
       <c r="D154" s="15" t="s">
         <v>100</v>
       </c>
@@ -13912,7 +13919,7 @@
       <c r="R154" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S154" s="48"/>
+      <c r="S154" s="38"/>
       <c r="T154" s="33"/>
       <c r="U154" s="33"/>
       <c r="V154" s="33"/>
@@ -13932,9 +13939,9 @@
       </c>
     </row>
     <row r="155" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A155" s="42"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="37"/>
+      <c r="A155" s="41"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="46"/>
       <c r="D155" s="15" t="s">
         <v>104</v>
       </c>
@@ -13978,7 +13985,7 @@
       <c r="R155" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S155" s="48"/>
+      <c r="S155" s="38"/>
       <c r="T155" s="33"/>
       <c r="U155" s="33"/>
       <c r="V155" s="33"/>
@@ -13998,9 +14005,9 @@
       </c>
     </row>
     <row r="156" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A156" s="42"/>
-      <c r="B156" s="45"/>
-      <c r="C156" s="38" t="s">
+      <c r="A156" s="41"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D156" s="15" t="s">
@@ -14048,7 +14055,7 @@
       <c r="R156" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S156" s="48"/>
+      <c r="S156" s="38"/>
       <c r="T156" s="33"/>
       <c r="U156" s="33"/>
       <c r="V156" s="33"/>
@@ -14068,9 +14075,9 @@
       </c>
     </row>
     <row r="157" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A157" s="42"/>
-      <c r="B157" s="45"/>
-      <c r="C157" s="39"/>
+      <c r="A157" s="41"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="48"/>
       <c r="D157" s="15" t="s">
         <v>112</v>
       </c>
@@ -14114,7 +14121,7 @@
       <c r="R157" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S157" s="48"/>
+      <c r="S157" s="38"/>
       <c r="T157" s="33"/>
       <c r="U157" s="33"/>
       <c r="V157" s="33"/>
@@ -14134,9 +14141,9 @@
       </c>
     </row>
     <row r="158" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A158" s="43"/>
-      <c r="B158" s="46"/>
-      <c r="C158" s="40"/>
+      <c r="A158" s="42"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="49"/>
       <c r="D158" s="17" t="s">
         <v>115</v>
       </c>
@@ -14182,7 +14189,7 @@
       <c r="R158" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S158" s="48"/>
+      <c r="S158" s="38"/>
       <c r="T158" s="33"/>
       <c r="U158" s="33"/>
       <c r="V158" s="33"/>
@@ -14202,10 +14209,10 @@
       </c>
     </row>
     <row r="159" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="41">
+      <c r="A159" s="40">
         <v>8</v>
       </c>
-      <c r="B159" s="44" t="s">
+      <c r="B159" s="43" t="s">
         <v>11</v>
       </c>
       <c r="C159" s="23" t="s">
@@ -14256,7 +14263,7 @@
       <c r="R159" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S159" s="48"/>
+      <c r="S159" s="38"/>
       <c r="T159" s="33"/>
       <c r="U159" s="33"/>
       <c r="V159" s="33"/>
@@ -14276,9 +14283,9 @@
       </c>
     </row>
     <row r="160" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A160" s="42"/>
-      <c r="B160" s="45"/>
-      <c r="C160" s="37" t="s">
+      <c r="A160" s="41"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="46" t="s">
         <v>358</v>
       </c>
       <c r="D160" s="15" t="s">
@@ -14326,7 +14333,7 @@
       <c r="R160" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S160" s="48"/>
+      <c r="S160" s="38"/>
       <c r="T160" s="33"/>
       <c r="U160" s="33"/>
       <c r="V160" s="33"/>
@@ -14346,9 +14353,9 @@
       </c>
     </row>
     <row r="161" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A161" s="42"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="37"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="46"/>
       <c r="D161" s="15" t="s">
         <v>38</v>
       </c>
@@ -14394,7 +14401,7 @@
       <c r="R161" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S161" s="48"/>
+      <c r="S161" s="38"/>
       <c r="T161" s="33"/>
       <c r="U161" s="33"/>
       <c r="V161" s="33"/>
@@ -14414,9 +14421,9 @@
       </c>
     </row>
     <row r="162" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A162" s="42"/>
-      <c r="B162" s="45"/>
-      <c r="C162" s="37"/>
+      <c r="A162" s="41"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="46"/>
       <c r="D162" s="15" t="s">
         <v>42</v>
       </c>
@@ -14462,7 +14469,7 @@
       <c r="R162" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S162" s="48"/>
+      <c r="S162" s="38"/>
       <c r="T162" s="33"/>
       <c r="U162" s="33"/>
       <c r="V162" s="33"/>
@@ -14482,9 +14489,9 @@
       </c>
     </row>
     <row r="163" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A163" s="42"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="37"/>
+      <c r="A163" s="41"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="46"/>
       <c r="D163" s="15" t="s">
         <v>45</v>
       </c>
@@ -14530,7 +14537,7 @@
       <c r="R163" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S163" s="48"/>
+      <c r="S163" s="38"/>
       <c r="T163" s="33"/>
       <c r="U163" s="33"/>
       <c r="V163" s="33"/>
@@ -14550,9 +14557,9 @@
       </c>
     </row>
     <row r="164" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A164" s="42"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="37"/>
+      <c r="A164" s="41"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="46"/>
       <c r="D164" s="15" t="s">
         <v>49</v>
       </c>
@@ -14598,7 +14605,7 @@
       <c r="R164" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S164" s="48"/>
+      <c r="S164" s="38"/>
       <c r="T164" s="33"/>
       <c r="U164" s="33"/>
       <c r="V164" s="33"/>
@@ -14618,9 +14625,9 @@
       </c>
     </row>
     <row r="165" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A165" s="42"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="37"/>
+      <c r="A165" s="41"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="46"/>
       <c r="D165" s="15" t="s">
         <v>53</v>
       </c>
@@ -14666,7 +14673,7 @@
       <c r="R165" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S165" s="48"/>
+      <c r="S165" s="38"/>
       <c r="T165" s="33"/>
       <c r="U165" s="33"/>
       <c r="V165" s="33"/>
@@ -14686,9 +14693,9 @@
       </c>
     </row>
     <row r="166" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A166" s="42"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="37"/>
+      <c r="A166" s="41"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="46"/>
       <c r="D166" s="15" t="s">
         <v>57</v>
       </c>
@@ -14734,7 +14741,7 @@
       <c r="R166" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S166" s="48"/>
+      <c r="S166" s="38"/>
       <c r="T166" s="33"/>
       <c r="U166" s="33"/>
       <c r="V166" s="33"/>
@@ -14754,9 +14761,9 @@
       </c>
     </row>
     <row r="167" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A167" s="42"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="37"/>
+      <c r="A167" s="41"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="46"/>
       <c r="D167" s="15" t="s">
         <v>57</v>
       </c>
@@ -14802,7 +14809,7 @@
       <c r="R167" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S167" s="48"/>
+      <c r="S167" s="38"/>
       <c r="T167" s="33"/>
       <c r="U167" s="33"/>
       <c r="V167" s="33"/>
@@ -14822,9 +14829,9 @@
       </c>
     </row>
     <row r="168" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A168" s="42"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="37"/>
+      <c r="A168" s="41"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="46"/>
       <c r="D168" s="15" t="s">
         <v>57</v>
       </c>
@@ -14870,7 +14877,7 @@
       <c r="R168" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S168" s="48"/>
+      <c r="S168" s="38"/>
       <c r="T168" s="33"/>
       <c r="U168" s="33"/>
       <c r="V168" s="33"/>
@@ -14890,9 +14897,9 @@
       </c>
     </row>
     <row r="169" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A169" s="42"/>
-      <c r="B169" s="45"/>
-      <c r="C169" s="37"/>
+      <c r="A169" s="41"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="46"/>
       <c r="D169" s="15" t="s">
         <v>77</v>
       </c>
@@ -14938,7 +14945,7 @@
       <c r="R169" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S169" s="48"/>
+      <c r="S169" s="38"/>
       <c r="T169" s="33"/>
       <c r="U169" s="33"/>
       <c r="V169" s="33"/>
@@ -14958,9 +14965,9 @@
       </c>
     </row>
     <row r="170" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A170" s="42"/>
-      <c r="B170" s="45"/>
-      <c r="C170" s="37"/>
+      <c r="A170" s="41"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="46"/>
       <c r="D170" s="15" t="s">
         <v>81</v>
       </c>
@@ -15006,7 +15013,7 @@
       <c r="R170" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S170" s="48"/>
+      <c r="S170" s="38"/>
       <c r="T170" s="33"/>
       <c r="U170" s="33"/>
       <c r="V170" s="33"/>
@@ -15026,9 +15033,9 @@
       </c>
     </row>
     <row r="171" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A171" s="42"/>
-      <c r="B171" s="45"/>
-      <c r="C171" s="37"/>
+      <c r="A171" s="41"/>
+      <c r="B171" s="44"/>
+      <c r="C171" s="46"/>
       <c r="D171" s="15" t="s">
         <v>85</v>
       </c>
@@ -15074,7 +15081,7 @@
       <c r="R171" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S171" s="48"/>
+      <c r="S171" s="38"/>
       <c r="T171" s="33"/>
       <c r="U171" s="33"/>
       <c r="V171" s="33"/>
@@ -15094,9 +15101,9 @@
       </c>
     </row>
     <row r="172" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="42"/>
-      <c r="B172" s="45"/>
-      <c r="C172" s="37"/>
+      <c r="A172" s="41"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="46"/>
       <c r="D172" s="15" t="s">
         <v>88</v>
       </c>
@@ -15142,7 +15149,7 @@
       <c r="R172" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S172" s="48"/>
+      <c r="S172" s="38"/>
       <c r="T172" s="33"/>
       <c r="U172" s="33"/>
       <c r="V172" s="33"/>
@@ -15162,9 +15169,9 @@
       </c>
     </row>
     <row r="173" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="42"/>
-      <c r="B173" s="45"/>
-      <c r="C173" s="37"/>
+      <c r="A173" s="41"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="46"/>
       <c r="D173" s="15" t="s">
         <v>92</v>
       </c>
@@ -15210,7 +15217,7 @@
       <c r="R173" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S173" s="48"/>
+      <c r="S173" s="38"/>
       <c r="T173" s="33"/>
       <c r="U173" s="33"/>
       <c r="V173" s="33"/>
@@ -15230,9 +15237,9 @@
       </c>
     </row>
     <row r="174" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="42"/>
-      <c r="B174" s="45"/>
-      <c r="C174" s="37"/>
+      <c r="A174" s="41"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="46"/>
       <c r="D174" s="15" t="s">
         <v>96</v>
       </c>
@@ -15278,7 +15285,7 @@
       <c r="R174" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S174" s="48"/>
+      <c r="S174" s="38"/>
       <c r="T174" s="33"/>
       <c r="U174" s="33"/>
       <c r="V174" s="33"/>
@@ -15298,9 +15305,9 @@
       </c>
     </row>
     <row r="175" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="42"/>
-      <c r="B175" s="45"/>
-      <c r="C175" s="37"/>
+      <c r="A175" s="41"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="46"/>
       <c r="D175" s="15" t="s">
         <v>100</v>
       </c>
@@ -15344,7 +15351,7 @@
       <c r="R175" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S175" s="48"/>
+      <c r="S175" s="38"/>
       <c r="T175" s="33"/>
       <c r="U175" s="33"/>
       <c r="V175" s="33"/>
@@ -15364,9 +15371,9 @@
       </c>
     </row>
     <row r="176" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A176" s="42"/>
-      <c r="B176" s="45"/>
-      <c r="C176" s="37"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="44"/>
+      <c r="C176" s="46"/>
       <c r="D176" s="15" t="s">
         <v>104</v>
       </c>
@@ -15410,7 +15417,7 @@
       <c r="R176" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S176" s="48"/>
+      <c r="S176" s="38"/>
       <c r="T176" s="33"/>
       <c r="U176" s="33"/>
       <c r="V176" s="33"/>
@@ -15430,9 +15437,9 @@
       </c>
     </row>
     <row r="177" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A177" s="42"/>
-      <c r="B177" s="45"/>
-      <c r="C177" s="38" t="s">
+      <c r="A177" s="41"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D177" s="15" t="s">
@@ -15480,7 +15487,7 @@
       <c r="R177" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S177" s="48"/>
+      <c r="S177" s="38"/>
       <c r="T177" s="33"/>
       <c r="U177" s="33"/>
       <c r="V177" s="33"/>
@@ -15500,9 +15507,9 @@
       </c>
     </row>
     <row r="178" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A178" s="42"/>
-      <c r="B178" s="45"/>
-      <c r="C178" s="39"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="48"/>
       <c r="D178" s="15" t="s">
         <v>112</v>
       </c>
@@ -15546,7 +15553,7 @@
       <c r="R178" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S178" s="48"/>
+      <c r="S178" s="38"/>
       <c r="T178" s="33"/>
       <c r="U178" s="33"/>
       <c r="V178" s="33"/>
@@ -15566,9 +15573,9 @@
       </c>
     </row>
     <row r="179" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A179" s="43"/>
-      <c r="B179" s="46"/>
-      <c r="C179" s="40"/>
+      <c r="A179" s="42"/>
+      <c r="B179" s="45"/>
+      <c r="C179" s="49"/>
       <c r="D179" s="17" t="s">
         <v>115</v>
       </c>
@@ -15614,7 +15621,7 @@
       <c r="R179" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S179" s="48"/>
+      <c r="S179" s="38"/>
       <c r="T179" s="33"/>
       <c r="U179" s="33"/>
       <c r="V179" s="33"/>
@@ -15634,13 +15641,13 @@
       </c>
     </row>
     <row r="180" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A180" s="41">
+      <c r="A180" s="40">
         <v>9</v>
       </c>
-      <c r="B180" s="44" t="s">
+      <c r="B180" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C180" s="37" t="s">
+      <c r="C180" s="46" t="s">
         <v>354</v>
       </c>
       <c r="D180" s="6" t="s">
@@ -15688,7 +15695,7 @@
       <c r="R180" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S180" s="48"/>
+      <c r="S180" s="38"/>
       <c r="T180" s="33"/>
       <c r="U180" s="33"/>
       <c r="V180" s="33"/>
@@ -15708,9 +15715,9 @@
       </c>
     </row>
     <row r="181" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A181" s="42"/>
-      <c r="B181" s="45"/>
-      <c r="C181" s="37"/>
+      <c r="A181" s="41"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="46"/>
       <c r="D181" s="6" t="s">
         <v>293</v>
       </c>
@@ -15756,7 +15763,7 @@
       <c r="R181" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S181" s="48"/>
+      <c r="S181" s="38"/>
       <c r="T181" s="33"/>
       <c r="U181" s="33"/>
       <c r="V181" s="33"/>
@@ -15776,9 +15783,9 @@
       </c>
     </row>
     <row r="182" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="42"/>
-      <c r="B182" s="45"/>
-      <c r="C182" s="37"/>
+      <c r="A182" s="41"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="46"/>
       <c r="D182" s="6" t="s">
         <v>408</v>
       </c>
@@ -15824,7 +15831,7 @@
       <c r="R182" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S182" s="48"/>
+      <c r="S182" s="38"/>
       <c r="T182" s="33"/>
       <c r="U182" s="33"/>
       <c r="V182" s="33"/>
@@ -15844,9 +15851,9 @@
       </c>
     </row>
     <row r="183" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="42"/>
-      <c r="B183" s="45"/>
-      <c r="C183" s="37"/>
+      <c r="A183" s="41"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="46"/>
       <c r="D183" s="6" t="s">
         <v>412</v>
       </c>
@@ -15892,7 +15899,7 @@
       <c r="R183" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S183" s="48"/>
+      <c r="S183" s="38"/>
       <c r="T183" s="33"/>
       <c r="U183" s="33"/>
       <c r="V183" s="33"/>
@@ -15912,9 +15919,9 @@
       </c>
     </row>
     <row r="184" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="42"/>
-      <c r="B184" s="45"/>
-      <c r="C184" s="37"/>
+      <c r="A184" s="41"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="46"/>
       <c r="D184" s="6" t="s">
         <v>416</v>
       </c>
@@ -15960,7 +15967,7 @@
       <c r="R184" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S184" s="48"/>
+      <c r="S184" s="38"/>
       <c r="T184" s="33"/>
       <c r="U184" s="33"/>
       <c r="V184" s="33"/>
@@ -15980,9 +15987,9 @@
       </c>
     </row>
     <row r="185" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A185" s="42"/>
-      <c r="B185" s="45"/>
-      <c r="C185" s="37" t="s">
+      <c r="A185" s="41"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="46" t="s">
         <v>420</v>
       </c>
       <c r="D185" s="15" t="s">
@@ -16030,7 +16037,7 @@
       <c r="R185" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S185" s="48"/>
+      <c r="S185" s="38"/>
       <c r="T185" s="33"/>
       <c r="U185" s="33"/>
       <c r="V185" s="33"/>
@@ -16050,9 +16057,9 @@
       </c>
     </row>
     <row r="186" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A186" s="42"/>
-      <c r="B186" s="45"/>
-      <c r="C186" s="37"/>
+      <c r="A186" s="41"/>
+      <c r="B186" s="44"/>
+      <c r="C186" s="46"/>
       <c r="D186" s="15" t="s">
         <v>38</v>
       </c>
@@ -16098,7 +16105,7 @@
       <c r="R186" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S186" s="48"/>
+      <c r="S186" s="38"/>
       <c r="T186" s="33"/>
       <c r="U186" s="33"/>
       <c r="V186" s="33"/>
@@ -16118,9 +16125,9 @@
       </c>
     </row>
     <row r="187" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A187" s="42"/>
-      <c r="B187" s="45"/>
-      <c r="C187" s="37"/>
+      <c r="A187" s="41"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="46"/>
       <c r="D187" s="15" t="s">
         <v>42</v>
       </c>
@@ -16166,7 +16173,7 @@
       <c r="R187" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S187" s="48"/>
+      <c r="S187" s="38"/>
       <c r="T187" s="33"/>
       <c r="U187" s="33"/>
       <c r="V187" s="33"/>
@@ -16186,9 +16193,9 @@
       </c>
     </row>
     <row r="188" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A188" s="42"/>
-      <c r="B188" s="45"/>
-      <c r="C188" s="37"/>
+      <c r="A188" s="41"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="46"/>
       <c r="D188" s="15" t="s">
         <v>45</v>
       </c>
@@ -16234,7 +16241,7 @@
       <c r="R188" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S188" s="48"/>
+      <c r="S188" s="38"/>
       <c r="T188" s="33"/>
       <c r="U188" s="33"/>
       <c r="V188" s="33"/>
@@ -16254,9 +16261,9 @@
       </c>
     </row>
     <row r="189" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A189" s="42"/>
-      <c r="B189" s="45"/>
-      <c r="C189" s="37"/>
+      <c r="A189" s="41"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="46"/>
       <c r="D189" s="15" t="s">
         <v>49</v>
       </c>
@@ -16302,7 +16309,7 @@
       <c r="R189" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S189" s="48"/>
+      <c r="S189" s="38"/>
       <c r="T189" s="33"/>
       <c r="U189" s="33"/>
       <c r="V189" s="33"/>
@@ -16322,9 +16329,9 @@
       </c>
     </row>
     <row r="190" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A190" s="42"/>
-      <c r="B190" s="45"/>
-      <c r="C190" s="37"/>
+      <c r="A190" s="41"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="46"/>
       <c r="D190" s="15" t="s">
         <v>53</v>
       </c>
@@ -16370,7 +16377,7 @@
       <c r="R190" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S190" s="48"/>
+      <c r="S190" s="38"/>
       <c r="T190" s="33"/>
       <c r="U190" s="33"/>
       <c r="V190" s="33"/>
@@ -16390,9 +16397,9 @@
       </c>
     </row>
     <row r="191" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A191" s="42"/>
-      <c r="B191" s="45"/>
-      <c r="C191" s="37"/>
+      <c r="A191" s="41"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="46"/>
       <c r="D191" s="15" t="s">
         <v>57</v>
       </c>
@@ -16438,7 +16445,7 @@
       <c r="R191" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S191" s="48"/>
+      <c r="S191" s="38"/>
       <c r="T191" s="33"/>
       <c r="U191" s="33"/>
       <c r="V191" s="33"/>
@@ -16458,9 +16465,9 @@
       </c>
     </row>
     <row r="192" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A192" s="42"/>
-      <c r="B192" s="45"/>
-      <c r="C192" s="37"/>
+      <c r="A192" s="41"/>
+      <c r="B192" s="44"/>
+      <c r="C192" s="46"/>
       <c r="D192" s="15" t="s">
         <v>57</v>
       </c>
@@ -16506,7 +16513,7 @@
       <c r="R192" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S192" s="48"/>
+      <c r="S192" s="38"/>
       <c r="T192" s="33"/>
       <c r="U192" s="33"/>
       <c r="V192" s="33"/>
@@ -16526,9 +16533,9 @@
       </c>
     </row>
     <row r="193" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A193" s="42"/>
-      <c r="B193" s="45"/>
-      <c r="C193" s="37"/>
+      <c r="A193" s="41"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="46"/>
       <c r="D193" s="15" t="s">
         <v>57</v>
       </c>
@@ -16574,7 +16581,7 @@
       <c r="R193" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S193" s="48"/>
+      <c r="S193" s="38"/>
       <c r="T193" s="33"/>
       <c r="U193" s="33"/>
       <c r="V193" s="33"/>
@@ -16594,9 +16601,9 @@
       </c>
     </row>
     <row r="194" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A194" s="42"/>
-      <c r="B194" s="45"/>
-      <c r="C194" s="37"/>
+      <c r="A194" s="41"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="46"/>
       <c r="D194" s="15" t="s">
         <v>77</v>
       </c>
@@ -16642,7 +16649,7 @@
       <c r="R194" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S194" s="48"/>
+      <c r="S194" s="38"/>
       <c r="T194" s="33"/>
       <c r="U194" s="33"/>
       <c r="V194" s="33"/>
@@ -16662,9 +16669,9 @@
       </c>
     </row>
     <row r="195" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A195" s="42"/>
-      <c r="B195" s="45"/>
-      <c r="C195" s="37"/>
+      <c r="A195" s="41"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="46"/>
       <c r="D195" s="15" t="s">
         <v>81</v>
       </c>
@@ -16710,7 +16717,7 @@
       <c r="R195" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S195" s="48"/>
+      <c r="S195" s="38"/>
       <c r="T195" s="33"/>
       <c r="U195" s="33"/>
       <c r="V195" s="33"/>
@@ -16730,9 +16737,9 @@
       </c>
     </row>
     <row r="196" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A196" s="42"/>
-      <c r="B196" s="45"/>
-      <c r="C196" s="37"/>
+      <c r="A196" s="41"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="46"/>
       <c r="D196" s="15" t="s">
         <v>85</v>
       </c>
@@ -16778,7 +16785,7 @@
       <c r="R196" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S196" s="48"/>
+      <c r="S196" s="38"/>
       <c r="T196" s="33"/>
       <c r="U196" s="33"/>
       <c r="V196" s="33"/>
@@ -16798,9 +16805,9 @@
       </c>
     </row>
     <row r="197" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="42"/>
-      <c r="B197" s="45"/>
-      <c r="C197" s="37"/>
+      <c r="A197" s="41"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="46"/>
       <c r="D197" s="15" t="s">
         <v>88</v>
       </c>
@@ -16846,7 +16853,7 @@
       <c r="R197" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S197" s="48"/>
+      <c r="S197" s="38"/>
       <c r="T197" s="33"/>
       <c r="U197" s="33"/>
       <c r="V197" s="33"/>
@@ -16866,9 +16873,9 @@
       </c>
     </row>
     <row r="198" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="42"/>
-      <c r="B198" s="45"/>
-      <c r="C198" s="37"/>
+      <c r="A198" s="41"/>
+      <c r="B198" s="44"/>
+      <c r="C198" s="46"/>
       <c r="D198" s="15" t="s">
         <v>92</v>
       </c>
@@ -16914,7 +16921,7 @@
       <c r="R198" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S198" s="48"/>
+      <c r="S198" s="38"/>
       <c r="T198" s="33"/>
       <c r="U198" s="33"/>
       <c r="V198" s="33"/>
@@ -16934,9 +16941,9 @@
       </c>
     </row>
     <row r="199" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="42"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="37"/>
+      <c r="A199" s="41"/>
+      <c r="B199" s="44"/>
+      <c r="C199" s="46"/>
       <c r="D199" s="15" t="s">
         <v>96</v>
       </c>
@@ -16982,7 +16989,7 @@
       <c r="R199" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S199" s="48"/>
+      <c r="S199" s="38"/>
       <c r="T199" s="33"/>
       <c r="U199" s="33"/>
       <c r="V199" s="33"/>
@@ -17002,9 +17009,9 @@
       </c>
     </row>
     <row r="200" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="42"/>
-      <c r="B200" s="45"/>
-      <c r="C200" s="37"/>
+      <c r="A200" s="41"/>
+      <c r="B200" s="44"/>
+      <c r="C200" s="46"/>
       <c r="D200" s="15" t="s">
         <v>100</v>
       </c>
@@ -17048,7 +17055,7 @@
       <c r="R200" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S200" s="48"/>
+      <c r="S200" s="38"/>
       <c r="T200" s="33"/>
       <c r="U200" s="33"/>
       <c r="V200" s="33"/>
@@ -17068,9 +17075,9 @@
       </c>
     </row>
     <row r="201" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A201" s="42"/>
-      <c r="B201" s="45"/>
-      <c r="C201" s="37"/>
+      <c r="A201" s="41"/>
+      <c r="B201" s="44"/>
+      <c r="C201" s="46"/>
       <c r="D201" s="15" t="s">
         <v>104</v>
       </c>
@@ -17114,7 +17121,7 @@
       <c r="R201" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S201" s="48"/>
+      <c r="S201" s="38"/>
       <c r="T201" s="33"/>
       <c r="U201" s="33"/>
       <c r="V201" s="33"/>
@@ -17134,9 +17141,9 @@
       </c>
     </row>
     <row r="202" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A202" s="42"/>
-      <c r="B202" s="45"/>
-      <c r="C202" s="38" t="s">
+      <c r="A202" s="41"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D202" s="15" t="s">
@@ -17184,7 +17191,7 @@
       <c r="R202" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S202" s="48"/>
+      <c r="S202" s="38"/>
       <c r="T202" s="33"/>
       <c r="U202" s="33"/>
       <c r="V202" s="33"/>
@@ -17204,9 +17211,9 @@
       </c>
     </row>
     <row r="203" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A203" s="42"/>
-      <c r="B203" s="45"/>
-      <c r="C203" s="39"/>
+      <c r="A203" s="41"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="48"/>
       <c r="D203" s="15" t="s">
         <v>112</v>
       </c>
@@ -17250,7 +17257,7 @@
       <c r="R203" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S203" s="48"/>
+      <c r="S203" s="38"/>
       <c r="T203" s="33"/>
       <c r="U203" s="33"/>
       <c r="V203" s="33"/>
@@ -17270,9 +17277,9 @@
       </c>
     </row>
     <row r="204" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A204" s="43"/>
-      <c r="B204" s="46"/>
-      <c r="C204" s="40"/>
+      <c r="A204" s="42"/>
+      <c r="B204" s="45"/>
+      <c r="C204" s="49"/>
       <c r="D204" s="17" t="s">
         <v>115</v>
       </c>
@@ -17318,7 +17325,7 @@
       <c r="R204" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S204" s="48"/>
+      <c r="S204" s="38"/>
       <c r="T204" s="33"/>
       <c r="U204" s="33"/>
       <c r="V204" s="33"/>
@@ -17338,13 +17345,13 @@
       </c>
     </row>
     <row r="205" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A205" s="41">
+      <c r="A205" s="40">
         <v>10</v>
       </c>
-      <c r="B205" s="44" t="s">
+      <c r="B205" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C205" s="37" t="s">
+      <c r="C205" s="46" t="s">
         <v>533</v>
       </c>
       <c r="D205" s="6" t="s">
@@ -17392,7 +17399,7 @@
       <c r="R205" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S205" s="48"/>
+      <c r="S205" s="38"/>
       <c r="T205" s="33"/>
       <c r="U205" s="33"/>
       <c r="V205" s="33"/>
@@ -17412,9 +17419,9 @@
       </c>
     </row>
     <row r="206" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A206" s="42"/>
-      <c r="B206" s="45"/>
-      <c r="C206" s="37"/>
+      <c r="A206" s="41"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="46"/>
       <c r="D206" s="6" t="s">
         <v>293</v>
       </c>
@@ -17460,7 +17467,7 @@
       <c r="R206" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S206" s="48"/>
+      <c r="S206" s="38"/>
       <c r="T206" s="33"/>
       <c r="U206" s="33"/>
       <c r="V206" s="33"/>
@@ -17480,9 +17487,9 @@
       </c>
     </row>
     <row r="207" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A207" s="42"/>
-      <c r="B207" s="45"/>
-      <c r="C207" s="37"/>
+      <c r="A207" s="41"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="46"/>
       <c r="D207" s="6" t="s">
         <v>538</v>
       </c>
@@ -17528,7 +17535,7 @@
       <c r="R207" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S207" s="48"/>
+      <c r="S207" s="38"/>
       <c r="T207" s="33"/>
       <c r="U207" s="33"/>
       <c r="V207" s="33"/>
@@ -17548,9 +17555,9 @@
       </c>
     </row>
     <row r="208" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="42"/>
-      <c r="B208" s="45"/>
-      <c r="C208" s="37"/>
+      <c r="A208" s="41"/>
+      <c r="B208" s="44"/>
+      <c r="C208" s="46"/>
       <c r="D208" s="6" t="s">
         <v>542</v>
       </c>
@@ -17596,7 +17603,7 @@
       <c r="R208" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S208" s="48"/>
+      <c r="S208" s="38"/>
       <c r="T208" s="33"/>
       <c r="U208" s="33"/>
       <c r="V208" s="33"/>
@@ -17616,9 +17623,9 @@
       </c>
     </row>
     <row r="209" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A209" s="42"/>
-      <c r="B209" s="45"/>
-      <c r="C209" s="37"/>
+      <c r="A209" s="41"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="46"/>
       <c r="D209" s="6" t="s">
         <v>546</v>
       </c>
@@ -17664,7 +17671,7 @@
       <c r="R209" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S209" s="48"/>
+      <c r="S209" s="38"/>
       <c r="T209" s="33"/>
       <c r="U209" s="33"/>
       <c r="V209" s="33"/>
@@ -17684,9 +17691,9 @@
       </c>
     </row>
     <row r="210" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A210" s="42"/>
-      <c r="B210" s="45"/>
-      <c r="C210" s="37" t="s">
+      <c r="A210" s="41"/>
+      <c r="B210" s="44"/>
+      <c r="C210" s="46" t="s">
         <v>550</v>
       </c>
       <c r="D210" s="15" t="s">
@@ -17734,7 +17741,7 @@
       <c r="R210" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S210" s="48"/>
+      <c r="S210" s="38"/>
       <c r="T210" s="33"/>
       <c r="U210" s="33"/>
       <c r="V210" s="33"/>
@@ -17754,9 +17761,9 @@
       </c>
     </row>
     <row r="211" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A211" s="42"/>
-      <c r="B211" s="45"/>
-      <c r="C211" s="37"/>
+      <c r="A211" s="41"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="46"/>
       <c r="D211" s="15" t="s">
         <v>38</v>
       </c>
@@ -17802,7 +17809,7 @@
       <c r="R211" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S211" s="48"/>
+      <c r="S211" s="38"/>
       <c r="T211" s="33"/>
       <c r="U211" s="33"/>
       <c r="V211" s="33"/>
@@ -17822,9 +17829,9 @@
       </c>
     </row>
     <row r="212" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A212" s="42"/>
-      <c r="B212" s="45"/>
-      <c r="C212" s="37"/>
+      <c r="A212" s="41"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="46"/>
       <c r="D212" s="15" t="s">
         <v>42</v>
       </c>
@@ -17870,7 +17877,7 @@
       <c r="R212" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S212" s="48"/>
+      <c r="S212" s="38"/>
       <c r="T212" s="33"/>
       <c r="U212" s="33"/>
       <c r="V212" s="33"/>
@@ -17890,9 +17897,9 @@
       </c>
     </row>
     <row r="213" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A213" s="42"/>
-      <c r="B213" s="45"/>
-      <c r="C213" s="37"/>
+      <c r="A213" s="41"/>
+      <c r="B213" s="44"/>
+      <c r="C213" s="46"/>
       <c r="D213" s="15" t="s">
         <v>45</v>
       </c>
@@ -17938,7 +17945,7 @@
       <c r="R213" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S213" s="48"/>
+      <c r="S213" s="38"/>
       <c r="T213" s="33"/>
       <c r="U213" s="33"/>
       <c r="V213" s="33"/>
@@ -17958,9 +17965,9 @@
       </c>
     </row>
     <row r="214" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A214" s="42"/>
-      <c r="B214" s="45"/>
-      <c r="C214" s="37"/>
+      <c r="A214" s="41"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="46"/>
       <c r="D214" s="15" t="s">
         <v>49</v>
       </c>
@@ -18006,7 +18013,7 @@
       <c r="R214" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S214" s="48"/>
+      <c r="S214" s="38"/>
       <c r="T214" s="33"/>
       <c r="U214" s="33"/>
       <c r="V214" s="33"/>
@@ -18026,9 +18033,9 @@
       </c>
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A215" s="42"/>
-      <c r="B215" s="45"/>
-      <c r="C215" s="37"/>
+      <c r="A215" s="41"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="46"/>
       <c r="D215" s="15" t="s">
         <v>53</v>
       </c>
@@ -18074,7 +18081,7 @@
       <c r="R215" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S215" s="48"/>
+      <c r="S215" s="38"/>
       <c r="T215" s="33"/>
       <c r="U215" s="33"/>
       <c r="V215" s="33"/>
@@ -18094,9 +18101,9 @@
       </c>
     </row>
     <row r="216" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A216" s="42"/>
-      <c r="B216" s="45"/>
-      <c r="C216" s="37"/>
+      <c r="A216" s="41"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="46"/>
       <c r="D216" s="15" t="s">
         <v>57</v>
       </c>
@@ -18142,7 +18149,7 @@
       <c r="R216" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S216" s="48"/>
+      <c r="S216" s="38"/>
       <c r="T216" s="33"/>
       <c r="U216" s="33"/>
       <c r="V216" s="33"/>
@@ -18162,9 +18169,9 @@
       </c>
     </row>
     <row r="217" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A217" s="42"/>
-      <c r="B217" s="45"/>
-      <c r="C217" s="37"/>
+      <c r="A217" s="41"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="46"/>
       <c r="D217" s="15" t="s">
         <v>57</v>
       </c>
@@ -18210,7 +18217,7 @@
       <c r="R217" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S217" s="48"/>
+      <c r="S217" s="38"/>
       <c r="T217" s="33"/>
       <c r="U217" s="33"/>
       <c r="V217" s="33"/>
@@ -18230,9 +18237,9 @@
       </c>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A218" s="42"/>
-      <c r="B218" s="45"/>
-      <c r="C218" s="37"/>
+      <c r="A218" s="41"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="46"/>
       <c r="D218" s="15" t="s">
         <v>57</v>
       </c>
@@ -18278,7 +18285,7 @@
       <c r="R218" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S218" s="48"/>
+      <c r="S218" s="38"/>
       <c r="T218" s="33"/>
       <c r="U218" s="33"/>
       <c r="V218" s="33"/>
@@ -18298,9 +18305,9 @@
       </c>
     </row>
     <row r="219" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A219" s="42"/>
-      <c r="B219" s="45"/>
-      <c r="C219" s="37"/>
+      <c r="A219" s="41"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="46"/>
       <c r="D219" s="15" t="s">
         <v>77</v>
       </c>
@@ -18346,7 +18353,7 @@
       <c r="R219" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S219" s="48"/>
+      <c r="S219" s="38"/>
       <c r="T219" s="33"/>
       <c r="U219" s="33"/>
       <c r="V219" s="33"/>
@@ -18366,9 +18373,9 @@
       </c>
     </row>
     <row r="220" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A220" s="42"/>
-      <c r="B220" s="45"/>
-      <c r="C220" s="37"/>
+      <c r="A220" s="41"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="46"/>
       <c r="D220" s="15" t="s">
         <v>81</v>
       </c>
@@ -18414,7 +18421,7 @@
       <c r="R220" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S220" s="48"/>
+      <c r="S220" s="38"/>
       <c r="T220" s="33"/>
       <c r="U220" s="33"/>
       <c r="V220" s="33"/>
@@ -18434,9 +18441,9 @@
       </c>
     </row>
     <row r="221" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A221" s="42"/>
-      <c r="B221" s="45"/>
-      <c r="C221" s="37"/>
+      <c r="A221" s="41"/>
+      <c r="B221" s="44"/>
+      <c r="C221" s="46"/>
       <c r="D221" s="15" t="s">
         <v>85</v>
       </c>
@@ -18482,7 +18489,7 @@
       <c r="R221" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S221" s="48"/>
+      <c r="S221" s="38"/>
       <c r="T221" s="33"/>
       <c r="U221" s="33"/>
       <c r="V221" s="33"/>
@@ -18502,9 +18509,9 @@
       </c>
     </row>
     <row r="222" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="42"/>
-      <c r="B222" s="45"/>
-      <c r="C222" s="37"/>
+      <c r="A222" s="41"/>
+      <c r="B222" s="44"/>
+      <c r="C222" s="46"/>
       <c r="D222" s="15" t="s">
         <v>88</v>
       </c>
@@ -18550,7 +18557,7 @@
       <c r="R222" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S222" s="48"/>
+      <c r="S222" s="38"/>
       <c r="T222" s="33"/>
       <c r="U222" s="33"/>
       <c r="V222" s="33"/>
@@ -18570,9 +18577,9 @@
       </c>
     </row>
     <row r="223" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="42"/>
-      <c r="B223" s="45"/>
-      <c r="C223" s="37"/>
+      <c r="A223" s="41"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="46"/>
       <c r="D223" s="15" t="s">
         <v>92</v>
       </c>
@@ -18618,7 +18625,7 @@
       <c r="R223" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S223" s="48"/>
+      <c r="S223" s="38"/>
       <c r="T223" s="33"/>
       <c r="U223" s="33"/>
       <c r="V223" s="33"/>
@@ -18638,9 +18645,9 @@
       </c>
     </row>
     <row r="224" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="42"/>
-      <c r="B224" s="45"/>
-      <c r="C224" s="37"/>
+      <c r="A224" s="41"/>
+      <c r="B224" s="44"/>
+      <c r="C224" s="46"/>
       <c r="D224" s="15" t="s">
         <v>96</v>
       </c>
@@ -18686,7 +18693,7 @@
       <c r="R224" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S224" s="48"/>
+      <c r="S224" s="38"/>
       <c r="T224" s="33"/>
       <c r="U224" s="33"/>
       <c r="V224" s="33"/>
@@ -18706,9 +18713,9 @@
       </c>
     </row>
     <row r="225" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A225" s="42"/>
-      <c r="B225" s="45"/>
-      <c r="C225" s="37"/>
+      <c r="A225" s="41"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="46"/>
       <c r="D225" s="15" t="s">
         <v>100</v>
       </c>
@@ -18752,7 +18759,7 @@
       <c r="R225" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S225" s="48"/>
+      <c r="S225" s="38"/>
       <c r="T225" s="33"/>
       <c r="U225" s="33"/>
       <c r="V225" s="33"/>
@@ -18772,9 +18779,9 @@
       </c>
     </row>
     <row r="226" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A226" s="42"/>
-      <c r="B226" s="45"/>
-      <c r="C226" s="37"/>
+      <c r="A226" s="41"/>
+      <c r="B226" s="44"/>
+      <c r="C226" s="46"/>
       <c r="D226" s="15" t="s">
         <v>104</v>
       </c>
@@ -18818,7 +18825,7 @@
       <c r="R226" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S226" s="48"/>
+      <c r="S226" s="38"/>
       <c r="T226" s="33"/>
       <c r="U226" s="33"/>
       <c r="V226" s="33"/>
@@ -18838,9 +18845,9 @@
       </c>
     </row>
     <row r="227" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A227" s="42"/>
-      <c r="B227" s="45"/>
-      <c r="C227" s="38" t="s">
+      <c r="A227" s="41"/>
+      <c r="B227" s="44"/>
+      <c r="C227" s="47" t="s">
         <v>589</v>
       </c>
       <c r="D227" s="15" t="s">
@@ -18888,7 +18895,7 @@
       <c r="R227" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S227" s="48"/>
+      <c r="S227" s="38"/>
       <c r="T227" s="33"/>
       <c r="U227" s="33"/>
       <c r="V227" s="33"/>
@@ -18908,9 +18915,9 @@
       </c>
     </row>
     <row r="228" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A228" s="42"/>
-      <c r="B228" s="45"/>
-      <c r="C228" s="39"/>
+      <c r="A228" s="41"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="48"/>
       <c r="D228" s="15" t="s">
         <v>112</v>
       </c>
@@ -18954,7 +18961,7 @@
       <c r="R228" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S228" s="48"/>
+      <c r="S228" s="38"/>
       <c r="T228" s="33"/>
       <c r="U228" s="33"/>
       <c r="V228" s="33"/>
@@ -18974,9 +18981,9 @@
       </c>
     </row>
     <row r="229" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A229" s="43"/>
-      <c r="B229" s="46"/>
-      <c r="C229" s="40"/>
+      <c r="A229" s="42"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="49"/>
       <c r="D229" s="17" t="s">
         <v>115</v>
       </c>
@@ -19022,7 +19029,7 @@
       <c r="R229" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S229" s="48"/>
+      <c r="S229" s="38"/>
       <c r="T229" s="33"/>
       <c r="U229" s="33"/>
       <c r="V229" s="33"/>
@@ -19042,13 +19049,13 @@
       </c>
     </row>
     <row r="230" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A230" s="41">
+      <c r="A230" s="40">
         <v>11</v>
       </c>
-      <c r="B230" s="44" t="s">
+      <c r="B230" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C230" s="37" t="s">
+      <c r="C230" s="46" t="s">
         <v>468</v>
       </c>
       <c r="D230" s="6" t="s">
@@ -19096,7 +19103,7 @@
       <c r="R230" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S230" s="48"/>
+      <c r="S230" s="38"/>
       <c r="T230" s="33"/>
       <c r="U230" s="33"/>
       <c r="V230" s="33"/>
@@ -19116,9 +19123,9 @@
       </c>
     </row>
     <row r="231" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A231" s="42"/>
-      <c r="B231" s="45"/>
-      <c r="C231" s="37"/>
+      <c r="A231" s="41"/>
+      <c r="B231" s="44"/>
+      <c r="C231" s="46"/>
       <c r="D231" s="6" t="s">
         <v>293</v>
       </c>
@@ -19164,7 +19171,7 @@
       <c r="R231" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S231" s="48"/>
+      <c r="S231" s="38"/>
       <c r="T231" s="33"/>
       <c r="U231" s="33"/>
       <c r="V231" s="33"/>
@@ -19184,9 +19191,9 @@
       </c>
     </row>
     <row r="232" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A232" s="42"/>
-      <c r="B232" s="45"/>
-      <c r="C232" s="37"/>
+      <c r="A232" s="41"/>
+      <c r="B232" s="44"/>
+      <c r="C232" s="46"/>
       <c r="D232" s="6" t="s">
         <v>473</v>
       </c>
@@ -19232,7 +19239,7 @@
       <c r="R232" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S232" s="48"/>
+      <c r="S232" s="38"/>
       <c r="T232" s="33"/>
       <c r="U232" s="33"/>
       <c r="V232" s="33"/>
@@ -19252,9 +19259,9 @@
       </c>
     </row>
     <row r="233" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A233" s="42"/>
-      <c r="B233" s="45"/>
-      <c r="C233" s="37"/>
+      <c r="A233" s="41"/>
+      <c r="B233" s="44"/>
+      <c r="C233" s="46"/>
       <c r="D233" s="6" t="s">
         <v>477</v>
       </c>
@@ -19300,7 +19307,7 @@
       <c r="R233" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S233" s="48"/>
+      <c r="S233" s="38"/>
       <c r="T233" s="33"/>
       <c r="U233" s="33"/>
       <c r="V233" s="33"/>
@@ -19320,9 +19327,9 @@
       </c>
     </row>
     <row r="234" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A234" s="42"/>
-      <c r="B234" s="45"/>
-      <c r="C234" s="37"/>
+      <c r="A234" s="41"/>
+      <c r="B234" s="44"/>
+      <c r="C234" s="46"/>
       <c r="D234" s="6" t="s">
         <v>481</v>
       </c>
@@ -19368,7 +19375,7 @@
       <c r="R234" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S234" s="48"/>
+      <c r="S234" s="38"/>
       <c r="T234" s="33"/>
       <c r="U234" s="33"/>
       <c r="V234" s="33"/>
@@ -19388,9 +19395,9 @@
       </c>
     </row>
     <row r="235" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A235" s="42"/>
-      <c r="B235" s="45"/>
-      <c r="C235" s="37" t="s">
+      <c r="A235" s="41"/>
+      <c r="B235" s="44"/>
+      <c r="C235" s="46" t="s">
         <v>485</v>
       </c>
       <c r="D235" s="15" t="s">
@@ -19438,7 +19445,7 @@
       <c r="R235" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S235" s="48"/>
+      <c r="S235" s="38"/>
       <c r="T235" s="33"/>
       <c r="U235" s="33"/>
       <c r="V235" s="33"/>
@@ -19458,9 +19465,9 @@
       </c>
     </row>
     <row r="236" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A236" s="42"/>
-      <c r="B236" s="45"/>
-      <c r="C236" s="37"/>
+      <c r="A236" s="41"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="46"/>
       <c r="D236" s="15" t="s">
         <v>38</v>
       </c>
@@ -19506,7 +19513,7 @@
       <c r="R236" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S236" s="48"/>
+      <c r="S236" s="38"/>
       <c r="T236" s="33"/>
       <c r="U236" s="33"/>
       <c r="V236" s="33"/>
@@ -19526,9 +19533,9 @@
       </c>
     </row>
     <row r="237" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A237" s="42"/>
-      <c r="B237" s="45"/>
-      <c r="C237" s="37"/>
+      <c r="A237" s="41"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="46"/>
       <c r="D237" s="15" t="s">
         <v>42</v>
       </c>
@@ -19574,7 +19581,7 @@
       <c r="R237" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S237" s="48"/>
+      <c r="S237" s="38"/>
       <c r="T237" s="33"/>
       <c r="U237" s="33"/>
       <c r="V237" s="33"/>
@@ -19594,9 +19601,9 @@
       </c>
     </row>
     <row r="238" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A238" s="42"/>
-      <c r="B238" s="45"/>
-      <c r="C238" s="37"/>
+      <c r="A238" s="41"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="46"/>
       <c r="D238" s="15" t="s">
         <v>45</v>
       </c>
@@ -19642,7 +19649,7 @@
       <c r="R238" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S238" s="48"/>
+      <c r="S238" s="38"/>
       <c r="T238" s="33"/>
       <c r="U238" s="33"/>
       <c r="V238" s="33"/>
@@ -19662,9 +19669,9 @@
       </c>
     </row>
     <row r="239" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A239" s="42"/>
-      <c r="B239" s="45"/>
-      <c r="C239" s="37"/>
+      <c r="A239" s="41"/>
+      <c r="B239" s="44"/>
+      <c r="C239" s="46"/>
       <c r="D239" s="15" t="s">
         <v>49</v>
       </c>
@@ -19710,7 +19717,7 @@
       <c r="R239" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S239" s="48"/>
+      <c r="S239" s="38"/>
       <c r="T239" s="33"/>
       <c r="U239" s="33"/>
       <c r="V239" s="33"/>
@@ -19730,9 +19737,9 @@
       </c>
     </row>
     <row r="240" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A240" s="42"/>
-      <c r="B240" s="45"/>
-      <c r="C240" s="37"/>
+      <c r="A240" s="41"/>
+      <c r="B240" s="44"/>
+      <c r="C240" s="46"/>
       <c r="D240" s="15" t="s">
         <v>53</v>
       </c>
@@ -19778,7 +19785,7 @@
       <c r="R240" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S240" s="48"/>
+      <c r="S240" s="38"/>
       <c r="T240" s="33"/>
       <c r="U240" s="33"/>
       <c r="V240" s="33"/>
@@ -19798,9 +19805,9 @@
       </c>
     </row>
     <row r="241" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A241" s="42"/>
-      <c r="B241" s="45"/>
-      <c r="C241" s="37"/>
+      <c r="A241" s="41"/>
+      <c r="B241" s="44"/>
+      <c r="C241" s="46"/>
       <c r="D241" s="15" t="s">
         <v>57</v>
       </c>
@@ -19846,7 +19853,7 @@
       <c r="R241" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S241" s="48"/>
+      <c r="S241" s="38"/>
       <c r="T241" s="33"/>
       <c r="U241" s="33"/>
       <c r="V241" s="33"/>
@@ -19866,9 +19873,9 @@
       </c>
     </row>
     <row r="242" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A242" s="42"/>
-      <c r="B242" s="45"/>
-      <c r="C242" s="37"/>
+      <c r="A242" s="41"/>
+      <c r="B242" s="44"/>
+      <c r="C242" s="46"/>
       <c r="D242" s="15" t="s">
         <v>57</v>
       </c>
@@ -19914,7 +19921,7 @@
       <c r="R242" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S242" s="48"/>
+      <c r="S242" s="38"/>
       <c r="T242" s="33"/>
       <c r="U242" s="33"/>
       <c r="V242" s="33"/>
@@ -19934,9 +19941,9 @@
       </c>
     </row>
     <row r="243" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A243" s="42"/>
-      <c r="B243" s="45"/>
-      <c r="C243" s="37"/>
+      <c r="A243" s="41"/>
+      <c r="B243" s="44"/>
+      <c r="C243" s="46"/>
       <c r="D243" s="15" t="s">
         <v>57</v>
       </c>
@@ -19982,7 +19989,7 @@
       <c r="R243" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S243" s="48"/>
+      <c r="S243" s="38"/>
       <c r="T243" s="33"/>
       <c r="U243" s="33"/>
       <c r="V243" s="33"/>
@@ -20002,9 +20009,9 @@
       </c>
     </row>
     <row r="244" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A244" s="42"/>
-      <c r="B244" s="45"/>
-      <c r="C244" s="37"/>
+      <c r="A244" s="41"/>
+      <c r="B244" s="44"/>
+      <c r="C244" s="46"/>
       <c r="D244" s="15" t="s">
         <v>77</v>
       </c>
@@ -20050,7 +20057,7 @@
       <c r="R244" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S244" s="48"/>
+      <c r="S244" s="38"/>
       <c r="T244" s="33"/>
       <c r="U244" s="33"/>
       <c r="V244" s="33"/>
@@ -20070,9 +20077,9 @@
       </c>
     </row>
     <row r="245" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A245" s="42"/>
-      <c r="B245" s="45"/>
-      <c r="C245" s="37"/>
+      <c r="A245" s="41"/>
+      <c r="B245" s="44"/>
+      <c r="C245" s="46"/>
       <c r="D245" s="15" t="s">
         <v>81</v>
       </c>
@@ -20118,7 +20125,7 @@
       <c r="R245" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S245" s="48"/>
+      <c r="S245" s="38"/>
       <c r="T245" s="33"/>
       <c r="U245" s="33"/>
       <c r="V245" s="33"/>
@@ -20138,9 +20145,9 @@
       </c>
     </row>
     <row r="246" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A246" s="42"/>
-      <c r="B246" s="45"/>
-      <c r="C246" s="37"/>
+      <c r="A246" s="41"/>
+      <c r="B246" s="44"/>
+      <c r="C246" s="46"/>
       <c r="D246" s="15" t="s">
         <v>85</v>
       </c>
@@ -20186,7 +20193,7 @@
       <c r="R246" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S246" s="48"/>
+      <c r="S246" s="38"/>
       <c r="T246" s="33"/>
       <c r="U246" s="33"/>
       <c r="V246" s="33"/>
@@ -20206,9 +20213,9 @@
       </c>
     </row>
     <row r="247" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="42"/>
-      <c r="B247" s="45"/>
-      <c r="C247" s="37"/>
+      <c r="A247" s="41"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="46"/>
       <c r="D247" s="15" t="s">
         <v>88</v>
       </c>
@@ -20254,7 +20261,7 @@
       <c r="R247" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S247" s="48"/>
+      <c r="S247" s="38"/>
       <c r="T247" s="33"/>
       <c r="U247" s="33"/>
       <c r="V247" s="33"/>
@@ -20274,9 +20281,9 @@
       </c>
     </row>
     <row r="248" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="42"/>
-      <c r="B248" s="45"/>
-      <c r="C248" s="37"/>
+      <c r="A248" s="41"/>
+      <c r="B248" s="44"/>
+      <c r="C248" s="46"/>
       <c r="D248" s="15" t="s">
         <v>92</v>
       </c>
@@ -20322,7 +20329,7 @@
       <c r="R248" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S248" s="48"/>
+      <c r="S248" s="38"/>
       <c r="T248" s="33"/>
       <c r="U248" s="33"/>
       <c r="V248" s="33"/>
@@ -20342,9 +20349,9 @@
       </c>
     </row>
     <row r="249" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="42"/>
-      <c r="B249" s="45"/>
-      <c r="C249" s="37"/>
+      <c r="A249" s="41"/>
+      <c r="B249" s="44"/>
+      <c r="C249" s="46"/>
       <c r="D249" s="15" t="s">
         <v>96</v>
       </c>
@@ -20390,7 +20397,7 @@
       <c r="R249" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S249" s="48"/>
+      <c r="S249" s="38"/>
       <c r="T249" s="33"/>
       <c r="U249" s="33"/>
       <c r="V249" s="33"/>
@@ -20410,9 +20417,9 @@
       </c>
     </row>
     <row r="250" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="42"/>
-      <c r="B250" s="45"/>
-      <c r="C250" s="37"/>
+      <c r="A250" s="41"/>
+      <c r="B250" s="44"/>
+      <c r="C250" s="46"/>
       <c r="D250" s="15" t="s">
         <v>100</v>
       </c>
@@ -20456,7 +20463,7 @@
       <c r="R250" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S250" s="48"/>
+      <c r="S250" s="38"/>
       <c r="T250" s="33"/>
       <c r="U250" s="33"/>
       <c r="V250" s="33"/>
@@ -20476,9 +20483,9 @@
       </c>
     </row>
     <row r="251" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A251" s="42"/>
-      <c r="B251" s="45"/>
-      <c r="C251" s="37"/>
+      <c r="A251" s="41"/>
+      <c r="B251" s="44"/>
+      <c r="C251" s="46"/>
       <c r="D251" s="15" t="s">
         <v>104</v>
       </c>
@@ -20522,7 +20529,7 @@
       <c r="R251" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S251" s="48"/>
+      <c r="S251" s="38"/>
       <c r="T251" s="33"/>
       <c r="U251" s="33"/>
       <c r="V251" s="33"/>
@@ -20542,9 +20549,9 @@
       </c>
     </row>
     <row r="252" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A252" s="42"/>
-      <c r="B252" s="45"/>
-      <c r="C252" s="38" t="s">
+      <c r="A252" s="41"/>
+      <c r="B252" s="44"/>
+      <c r="C252" s="47" t="s">
         <v>108</v>
       </c>
       <c r="D252" s="15" t="s">
@@ -20592,7 +20599,7 @@
       <c r="R252" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S252" s="48"/>
+      <c r="S252" s="38"/>
       <c r="T252" s="33"/>
       <c r="U252" s="33"/>
       <c r="V252" s="33"/>
@@ -20612,9 +20619,9 @@
       </c>
     </row>
     <row r="253" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A253" s="42"/>
-      <c r="B253" s="45"/>
-      <c r="C253" s="39"/>
+      <c r="A253" s="41"/>
+      <c r="B253" s="44"/>
+      <c r="C253" s="48"/>
       <c r="D253" s="15" t="s">
         <v>112</v>
       </c>
@@ -20658,7 +20665,7 @@
       <c r="R253" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S253" s="48"/>
+      <c r="S253" s="38"/>
       <c r="T253" s="33"/>
       <c r="U253" s="33"/>
       <c r="V253" s="33"/>
@@ -20678,9 +20685,9 @@
       </c>
     </row>
     <row r="254" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A254" s="43"/>
-      <c r="B254" s="46"/>
-      <c r="C254" s="40"/>
+      <c r="A254" s="42"/>
+      <c r="B254" s="45"/>
+      <c r="C254" s="49"/>
       <c r="D254" s="17" t="s">
         <v>115</v>
       </c>
@@ -20726,7 +20733,7 @@
       <c r="R254" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S254" s="48"/>
+      <c r="S254" s="38"/>
       <c r="T254" s="33"/>
       <c r="U254" s="33"/>
       <c r="V254" s="33"/>
@@ -20746,13 +20753,13 @@
       </c>
     </row>
     <row r="255" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A255" s="41">
+      <c r="A255" s="40">
         <v>12</v>
       </c>
-      <c r="B255" s="44" t="s">
+      <c r="B255" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C255" s="37" t="s">
+      <c r="C255" s="46" t="s">
         <v>596</v>
       </c>
       <c r="D255" s="6" t="s">
@@ -20800,7 +20807,7 @@
       <c r="R255" s="19">
         <v>1</v>
       </c>
-      <c r="S255" s="48"/>
+      <c r="S255" s="38"/>
       <c r="T255" s="33"/>
       <c r="U255" s="33"/>
       <c r="V255" s="33"/>
@@ -20820,9 +20827,9 @@
       </c>
     </row>
     <row r="256" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A256" s="42"/>
-      <c r="B256" s="45"/>
-      <c r="C256" s="37"/>
+      <c r="A256" s="41"/>
+      <c r="B256" s="44"/>
+      <c r="C256" s="46"/>
       <c r="D256" s="6" t="s">
         <v>293</v>
       </c>
@@ -20868,7 +20875,7 @@
       <c r="R256" s="19">
         <v>12</v>
       </c>
-      <c r="S256" s="48"/>
+      <c r="S256" s="38"/>
       <c r="T256" s="33"/>
       <c r="U256" s="33"/>
       <c r="V256" s="33"/>
@@ -20888,9 +20895,9 @@
       </c>
     </row>
     <row r="257" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A257" s="42"/>
-      <c r="B257" s="45"/>
-      <c r="C257" s="37"/>
+      <c r="A257" s="41"/>
+      <c r="B257" s="44"/>
+      <c r="C257" s="46"/>
       <c r="D257" s="6" t="s">
         <v>601</v>
       </c>
@@ -20936,7 +20943,7 @@
       <c r="R257" s="19">
         <v>123456789</v>
       </c>
-      <c r="S257" s="48"/>
+      <c r="S257" s="38"/>
       <c r="T257" s="33"/>
       <c r="U257" s="33"/>
       <c r="V257" s="33"/>
@@ -20956,9 +20963,9 @@
       </c>
     </row>
     <row r="258" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A258" s="42"/>
-      <c r="B258" s="45"/>
-      <c r="C258" s="37"/>
+      <c r="A258" s="41"/>
+      <c r="B258" s="44"/>
+      <c r="C258" s="46"/>
       <c r="D258" s="6" t="s">
         <v>604</v>
       </c>
@@ -21004,7 +21011,7 @@
       <c r="R258" s="19">
         <v>1234567890</v>
       </c>
-      <c r="S258" s="48"/>
+      <c r="S258" s="38"/>
       <c r="T258" s="33"/>
       <c r="U258" s="33"/>
       <c r="V258" s="33"/>
@@ -21024,9 +21031,9 @@
       </c>
     </row>
     <row r="259" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A259" s="42"/>
-      <c r="B259" s="45"/>
-      <c r="C259" s="37"/>
+      <c r="A259" s="41"/>
+      <c r="B259" s="44"/>
+      <c r="C259" s="46"/>
       <c r="D259" s="6" t="s">
         <v>607</v>
       </c>
@@ -21072,7 +21079,7 @@
       <c r="R259" s="19">
         <v>12345678901</v>
       </c>
-      <c r="S259" s="48"/>
+      <c r="S259" s="38"/>
       <c r="T259" s="33"/>
       <c r="U259" s="33"/>
       <c r="V259" s="33"/>
@@ -21092,9 +21099,9 @@
       </c>
     </row>
     <row r="260" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A260" s="42"/>
-      <c r="B260" s="45"/>
-      <c r="C260" s="37" t="s">
+      <c r="A260" s="41"/>
+      <c r="B260" s="44"/>
+      <c r="C260" s="46" t="s">
         <v>610</v>
       </c>
       <c r="D260" s="15" t="s">
@@ -21142,7 +21149,7 @@
       <c r="R260" s="19" t="s">
         <v>612</v>
       </c>
-      <c r="S260" s="48"/>
+      <c r="S260" s="38"/>
       <c r="T260" s="33"/>
       <c r="U260" s="33"/>
       <c r="V260" s="33"/>
@@ -21162,9 +21169,9 @@
       </c>
     </row>
     <row r="261" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A261" s="42"/>
-      <c r="B261" s="45"/>
-      <c r="C261" s="37"/>
+      <c r="A261" s="41"/>
+      <c r="B261" s="44"/>
+      <c r="C261" s="46"/>
       <c r="D261" s="15" t="s">
         <v>38</v>
       </c>
@@ -21210,7 +21217,7 @@
       <c r="R261" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="S261" s="48"/>
+      <c r="S261" s="38"/>
       <c r="T261" s="33"/>
       <c r="U261" s="33"/>
       <c r="V261" s="33"/>
@@ -21230,9 +21237,9 @@
       </c>
     </row>
     <row r="262" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A262" s="42"/>
-      <c r="B262" s="45"/>
-      <c r="C262" s="37"/>
+      <c r="A262" s="41"/>
+      <c r="B262" s="44"/>
+      <c r="C262" s="46"/>
       <c r="D262" s="15" t="s">
         <v>42</v>
       </c>
@@ -21278,7 +21285,7 @@
       <c r="R262" s="19">
         <v>1234567890</v>
       </c>
-      <c r="S262" s="48"/>
+      <c r="S262" s="38"/>
       <c r="T262" s="33"/>
       <c r="U262" s="33"/>
       <c r="V262" s="33"/>
@@ -21298,9 +21305,9 @@
       </c>
     </row>
     <row r="263" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A263" s="42"/>
-      <c r="B263" s="45"/>
-      <c r="C263" s="37"/>
+      <c r="A263" s="41"/>
+      <c r="B263" s="44"/>
+      <c r="C263" s="46"/>
       <c r="D263" s="15" t="s">
         <v>45</v>
       </c>
@@ -21346,7 +21353,7 @@
       <c r="R263" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="S263" s="48"/>
+      <c r="S263" s="38"/>
       <c r="T263" s="33"/>
       <c r="U263" s="33"/>
       <c r="V263" s="33"/>
@@ -21366,9 +21373,9 @@
       </c>
     </row>
     <row r="264" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A264" s="42"/>
-      <c r="B264" s="45"/>
-      <c r="C264" s="37"/>
+      <c r="A264" s="41"/>
+      <c r="B264" s="44"/>
+      <c r="C264" s="46"/>
       <c r="D264" s="15" t="s">
         <v>49</v>
       </c>
@@ -21414,7 +21421,7 @@
       <c r="R264" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="S264" s="48"/>
+      <c r="S264" s="38"/>
       <c r="T264" s="33"/>
       <c r="U264" s="33"/>
       <c r="V264" s="33"/>
@@ -21434,9 +21441,9 @@
       </c>
     </row>
     <row r="265" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A265" s="42"/>
-      <c r="B265" s="45"/>
-      <c r="C265" s="37"/>
+      <c r="A265" s="41"/>
+      <c r="B265" s="44"/>
+      <c r="C265" s="46"/>
       <c r="D265" s="15" t="s">
         <v>53</v>
       </c>
@@ -21482,7 +21489,7 @@
       <c r="R265" s="19" t="s">
         <v>626</v>
       </c>
-      <c r="S265" s="48"/>
+      <c r="S265" s="38"/>
       <c r="T265" s="33"/>
       <c r="U265" s="33"/>
       <c r="V265" s="33"/>
@@ -21502,9 +21509,9 @@
       </c>
     </row>
     <row r="266" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A266" s="42"/>
-      <c r="B266" s="45"/>
-      <c r="C266" s="37"/>
+      <c r="A266" s="41"/>
+      <c r="B266" s="44"/>
+      <c r="C266" s="46"/>
       <c r="D266" s="15" t="s">
         <v>57</v>
       </c>
@@ -21550,7 +21557,7 @@
       <c r="R266" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="S266" s="48"/>
+      <c r="S266" s="38"/>
       <c r="T266" s="33"/>
       <c r="U266" s="33"/>
       <c r="V266" s="33"/>
@@ -21570,9 +21577,9 @@
       </c>
     </row>
     <row r="267" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A267" s="42"/>
-      <c r="B267" s="45"/>
-      <c r="C267" s="37"/>
+      <c r="A267" s="41"/>
+      <c r="B267" s="44"/>
+      <c r="C267" s="46"/>
       <c r="D267" s="15" t="s">
         <v>57</v>
       </c>
@@ -21618,7 +21625,7 @@
       <c r="R267" s="19" t="s">
         <v>632</v>
       </c>
-      <c r="S267" s="48"/>
+      <c r="S267" s="38"/>
       <c r="T267" s="33"/>
       <c r="U267" s="33"/>
       <c r="V267" s="33"/>
@@ -21638,9 +21645,9 @@
       </c>
     </row>
     <row r="268" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A268" s="42"/>
-      <c r="B268" s="45"/>
-      <c r="C268" s="37"/>
+      <c r="A268" s="41"/>
+      <c r="B268" s="44"/>
+      <c r="C268" s="46"/>
       <c r="D268" s="15" t="s">
         <v>57</v>
       </c>
@@ -21686,7 +21693,7 @@
       <c r="R268" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="S268" s="48"/>
+      <c r="S268" s="38"/>
       <c r="T268" s="33"/>
       <c r="U268" s="33"/>
       <c r="V268" s="33"/>
@@ -21706,9 +21713,9 @@
       </c>
     </row>
     <row r="269" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A269" s="42"/>
-      <c r="B269" s="45"/>
-      <c r="C269" s="37"/>
+      <c r="A269" s="41"/>
+      <c r="B269" s="44"/>
+      <c r="C269" s="46"/>
       <c r="D269" s="15" t="s">
         <v>77</v>
       </c>
@@ -21754,7 +21761,7 @@
       <c r="R269" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="S269" s="48"/>
+      <c r="S269" s="38"/>
       <c r="T269" s="33"/>
       <c r="U269" s="33"/>
       <c r="V269" s="33"/>
@@ -21774,9 +21781,9 @@
       </c>
     </row>
     <row r="270" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A270" s="42"/>
-      <c r="B270" s="45"/>
-      <c r="C270" s="37"/>
+      <c r="A270" s="41"/>
+      <c r="B270" s="44"/>
+      <c r="C270" s="46"/>
       <c r="D270" s="15" t="s">
         <v>81</v>
       </c>
@@ -21822,7 +21829,7 @@
       <c r="R270" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="S270" s="48"/>
+      <c r="S270" s="38"/>
       <c r="T270" s="33"/>
       <c r="U270" s="33"/>
       <c r="V270" s="33"/>
@@ -21842,9 +21849,9 @@
       </c>
     </row>
     <row r="271" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A271" s="42"/>
-      <c r="B271" s="45"/>
-      <c r="C271" s="37"/>
+      <c r="A271" s="41"/>
+      <c r="B271" s="44"/>
+      <c r="C271" s="46"/>
       <c r="D271" s="15" t="s">
         <v>85</v>
       </c>
@@ -21890,7 +21897,7 @@
       <c r="R271" s="19">
         <v>1.2345678899999999</v>
       </c>
-      <c r="S271" s="48"/>
+      <c r="S271" s="38"/>
       <c r="T271" s="33"/>
       <c r="U271" s="33"/>
       <c r="V271" s="33"/>
@@ -21910,9 +21917,9 @@
       </c>
     </row>
     <row r="272" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="42"/>
-      <c r="B272" s="45"/>
-      <c r="C272" s="37"/>
+      <c r="A272" s="41"/>
+      <c r="B272" s="44"/>
+      <c r="C272" s="46"/>
       <c r="D272" s="15" t="s">
         <v>88</v>
       </c>
@@ -21958,7 +21965,7 @@
       <c r="R272" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="S272" s="48"/>
+      <c r="S272" s="38"/>
       <c r="T272" s="33"/>
       <c r="U272" s="33"/>
       <c r="V272" s="33"/>
@@ -21978,9 +21985,9 @@
       </c>
     </row>
     <row r="273" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="42"/>
-      <c r="B273" s="45"/>
-      <c r="C273" s="37"/>
+      <c r="A273" s="41"/>
+      <c r="B273" s="44"/>
+      <c r="C273" s="46"/>
       <c r="D273" s="15" t="s">
         <v>92</v>
       </c>
@@ -22024,7 +22031,7 @@
       <c r="R273" s="19" t="s">
         <v>649</v>
       </c>
-      <c r="S273" s="48"/>
+      <c r="S273" s="38"/>
       <c r="T273" s="33"/>
       <c r="U273" s="33"/>
       <c r="V273" s="33"/>
@@ -22044,9 +22051,9 @@
       </c>
     </row>
     <row r="274" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="42"/>
-      <c r="B274" s="45"/>
-      <c r="C274" s="37"/>
+      <c r="A274" s="41"/>
+      <c r="B274" s="44"/>
+      <c r="C274" s="46"/>
       <c r="D274" s="15" t="s">
         <v>96</v>
       </c>
@@ -22090,7 +22097,7 @@
       <c r="R274" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="S274" s="48"/>
+      <c r="S274" s="38"/>
       <c r="T274" s="33"/>
       <c r="U274" s="33"/>
       <c r="V274" s="33"/>
@@ -22110,9 +22117,9 @@
       </c>
     </row>
     <row r="275" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="42"/>
-      <c r="B275" s="45"/>
-      <c r="C275" s="37"/>
+      <c r="A275" s="41"/>
+      <c r="B275" s="44"/>
+      <c r="C275" s="46"/>
       <c r="D275" s="15" t="s">
         <v>100</v>
       </c>
@@ -22156,7 +22163,7 @@
       <c r="R275" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="S275" s="48"/>
+      <c r="S275" s="38"/>
       <c r="T275" s="33"/>
       <c r="U275" s="33"/>
       <c r="V275" s="33"/>
@@ -22176,9 +22183,9 @@
       </c>
     </row>
     <row r="276" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A276" s="42"/>
-      <c r="B276" s="45"/>
-      <c r="C276" s="37"/>
+      <c r="A276" s="41"/>
+      <c r="B276" s="44"/>
+      <c r="C276" s="46"/>
       <c r="D276" s="15" t="s">
         <v>104</v>
       </c>
@@ -22222,7 +22229,7 @@
       <c r="R276" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="S276" s="48"/>
+      <c r="S276" s="38"/>
       <c r="T276" s="33"/>
       <c r="U276" s="33"/>
       <c r="V276" s="33"/>
@@ -22242,9 +22249,9 @@
       </c>
     </row>
     <row r="277" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A277" s="42"/>
-      <c r="B277" s="45"/>
-      <c r="C277" s="38" t="s">
+      <c r="A277" s="41"/>
+      <c r="B277" s="44"/>
+      <c r="C277" s="47" t="s">
         <v>589</v>
       </c>
       <c r="D277" s="15" t="s">
@@ -22292,7 +22299,7 @@
       <c r="R277" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="S277" s="48"/>
+      <c r="S277" s="38"/>
       <c r="T277" s="33"/>
       <c r="U277" s="33"/>
       <c r="V277" s="33"/>
@@ -22312,9 +22319,9 @@
       </c>
     </row>
     <row r="278" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A278" s="42"/>
-      <c r="B278" s="45"/>
-      <c r="C278" s="39"/>
+      <c r="A278" s="41"/>
+      <c r="B278" s="44"/>
+      <c r="C278" s="48"/>
       <c r="D278" s="15" t="s">
         <v>112</v>
       </c>
@@ -22358,7 +22365,7 @@
         <v>28</v>
       </c>
       <c r="R278" s="19"/>
-      <c r="S278" s="48"/>
+      <c r="S278" s="38"/>
       <c r="T278" s="33"/>
       <c r="U278" s="33"/>
       <c r="V278" s="33"/>
@@ -22378,9 +22385,9 @@
       </c>
     </row>
     <row r="279" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A279" s="43"/>
-      <c r="B279" s="46"/>
-      <c r="C279" s="40"/>
+      <c r="A279" s="42"/>
+      <c r="B279" s="45"/>
+      <c r="C279" s="49"/>
       <c r="D279" s="17" t="s">
         <v>115</v>
       </c>
@@ -22426,7 +22433,7 @@
       <c r="R279" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="S279" s="49"/>
+      <c r="S279" s="39"/>
       <c r="T279" s="33"/>
       <c r="U279" s="33"/>
       <c r="V279" s="33"/>
@@ -22447,6 +22454,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C139:C155"/>
+    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="A117:A137"/>
+    <mergeCell ref="B117:B137"/>
+    <mergeCell ref="C118:C134"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="A92:A116"/>
+    <mergeCell ref="A255:A279"/>
+    <mergeCell ref="B255:B279"/>
+    <mergeCell ref="C255:C259"/>
+    <mergeCell ref="C260:C276"/>
+    <mergeCell ref="C277:C279"/>
+    <mergeCell ref="A205:A229"/>
+    <mergeCell ref="B205:B229"/>
+    <mergeCell ref="C205:C209"/>
+    <mergeCell ref="C210:C226"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="B92:B116"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C113"/>
+    <mergeCell ref="A138:A158"/>
+    <mergeCell ref="B138:B158"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="A230:A254"/>
+    <mergeCell ref="B230:B254"/>
+    <mergeCell ref="C230:C234"/>
+    <mergeCell ref="C235:C251"/>
+    <mergeCell ref="C252:C254"/>
+    <mergeCell ref="A180:A204"/>
+    <mergeCell ref="B180:B204"/>
+    <mergeCell ref="C180:C184"/>
+    <mergeCell ref="C185:C201"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="A159:A179"/>
+    <mergeCell ref="B159:B179"/>
+    <mergeCell ref="C160:C176"/>
+    <mergeCell ref="C177:C179"/>
     <mergeCell ref="S1:S279"/>
     <mergeCell ref="A47:A67"/>
     <mergeCell ref="B47:B67"/>
@@ -22463,54 +22508,16 @@
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B68:B91"/>
     <mergeCell ref="C69:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="A230:A254"/>
-    <mergeCell ref="B230:B254"/>
-    <mergeCell ref="C230:C234"/>
-    <mergeCell ref="C235:C251"/>
-    <mergeCell ref="C252:C254"/>
-    <mergeCell ref="A180:A204"/>
-    <mergeCell ref="B180:B204"/>
-    <mergeCell ref="C180:C184"/>
-    <mergeCell ref="C185:C201"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="A159:A179"/>
-    <mergeCell ref="B159:B179"/>
-    <mergeCell ref="C160:C176"/>
-    <mergeCell ref="C177:C179"/>
-    <mergeCell ref="A92:A116"/>
-    <mergeCell ref="A255:A279"/>
-    <mergeCell ref="B255:B279"/>
-    <mergeCell ref="C255:C259"/>
-    <mergeCell ref="C260:C276"/>
-    <mergeCell ref="C277:C279"/>
-    <mergeCell ref="A205:A229"/>
-    <mergeCell ref="B205:B229"/>
-    <mergeCell ref="C205:C209"/>
-    <mergeCell ref="C210:C226"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="B92:B116"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C113"/>
-    <mergeCell ref="A138:A158"/>
-    <mergeCell ref="B138:B158"/>
-    <mergeCell ref="C139:C155"/>
-    <mergeCell ref="C156:C158"/>
-    <mergeCell ref="A117:A137"/>
-    <mergeCell ref="B117:B137"/>
-    <mergeCell ref="C118:C134"/>
-    <mergeCell ref="C135:C137"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E279">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E279" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R266" r:id="rId1"/>
-    <hyperlink ref="R269" r:id="rId2"/>
-    <hyperlink ref="R270" r:id="rId3"/>
+    <hyperlink ref="R266" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="R269" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="R270" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
